--- a/platform_realvalues/GMM_summary.xlsx
+++ b/platform_realvalues/GMM_summary.xlsx
@@ -20,7 +20,7 @@
     <sheet name="units" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">regular!$A$1:$CI$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">regular!$A$1:$CI$49</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">regular!#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="322">
   <si>
     <t>log base</t>
   </si>
@@ -1017,6 +1017,15 @@
   </si>
   <si>
     <t>Kuehn et al. 2020</t>
+  </si>
+  <si>
+    <t>Montalva et al. 2018</t>
+  </si>
+  <si>
+    <t>Montalva2018</t>
+  </si>
+  <si>
+    <t>GMMValidation_Montalva2018</t>
   </si>
 </sst>
 </file>
@@ -1170,7 +1179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1296,11 +1305,23 @@
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="128">
+  <dxfs count="166">
     <dxf>
       <font>
         <strike val="0"/>
@@ -1315,11 +1336,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -1337,6 +1353,11 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -1349,11 +1370,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -1366,6 +1382,229 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
         <color theme="0"/>
       </font>
     </dxf>
@@ -2051,8 +2290,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF33CC"/>
       <color rgb="FFFFAFEA"/>
-      <color rgb="FFFF33CC"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2329,11 +2568,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BR48"/>
+  <dimension ref="A1:BR49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BM1" zoomScale="84" zoomScaleNormal="104" zoomScaleSheetLayoutView="54" zoomScalePageLayoutView="52" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="104" zoomScaleSheetLayoutView="54" zoomScalePageLayoutView="52" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BR9" sqref="BR9"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2798,14 +3037,14 @@
         <v>91</v>
       </c>
       <c r="C3" s="17" t="str">
-        <f t="shared" ref="C3:C48" si="0">"edit "&amp;B3</f>
+        <f t="shared" ref="C3:C49" si="0">"edit "&amp;B3</f>
         <v>edit AtkinsonBoore2003</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>153</v>
       </c>
       <c r="E3" s="17" t="str">
-        <f t="shared" ref="E3:E48" si="1">"edit "&amp;D3</f>
+        <f t="shared" ref="E3:E49" si="1">"edit "&amp;D3</f>
         <v>edit GMMValidation_AtkinsonBoore2003</v>
       </c>
       <c r="F3" s="17" t="s">
@@ -3915,453 +4154,453 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:70" s="46" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
+    <row r="8" spans="1:70" s="50" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="47" t="s">
         <v>268</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="48" t="s">
         <v>269</v>
       </c>
-      <c r="C8" s="44" t="str">
+      <c r="C8" s="48" t="str">
         <f t="shared" si="0"/>
         <v>edit BCHydro2018</v>
       </c>
-      <c r="D8" s="44" t="s">
+      <c r="D8" s="48" t="s">
         <v>270</v>
       </c>
-      <c r="E8" s="44" t="str">
+      <c r="E8" s="48" t="str">
         <f t="shared" si="1"/>
         <v>edit GMMValidation_BCHydro2018</v>
       </c>
-      <c r="F8" s="44" t="s">
+      <c r="F8" s="48" t="s">
         <v>205</v>
       </c>
-      <c r="G8" s="42" t="s">
+      <c r="G8" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="42" t="s">
+      <c r="H8" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="42" t="s">
+      <c r="I8" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="J8" s="45">
-        <v>0</v>
-      </c>
-      <c r="K8" s="42">
-        <v>1</v>
-      </c>
-      <c r="L8" s="42">
-        <v>0</v>
-      </c>
-      <c r="M8" s="42">
-        <v>0</v>
-      </c>
-      <c r="N8" s="42">
-        <v>0</v>
-      </c>
-      <c r="O8" s="42">
-        <v>0</v>
-      </c>
-      <c r="P8" s="42">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="42">
-        <v>0</v>
-      </c>
-      <c r="R8" s="42">
-        <v>1</v>
-      </c>
-      <c r="S8" s="42">
-        <v>0</v>
-      </c>
-      <c r="T8" s="42">
-        <v>0</v>
-      </c>
-      <c r="U8" s="42">
-        <v>0</v>
-      </c>
-      <c r="V8" s="42" t="s">
+      <c r="J8" s="49">
+        <v>0</v>
+      </c>
+      <c r="K8" s="12">
+        <v>1</v>
+      </c>
+      <c r="L8" s="12">
+        <v>0</v>
+      </c>
+      <c r="M8" s="12">
+        <v>0</v>
+      </c>
+      <c r="N8" s="12">
+        <v>0</v>
+      </c>
+      <c r="O8" s="12">
+        <v>0</v>
+      </c>
+      <c r="P8" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="12">
+        <v>0</v>
+      </c>
+      <c r="R8" s="12">
+        <v>1</v>
+      </c>
+      <c r="S8" s="12">
+        <v>0</v>
+      </c>
+      <c r="T8" s="12">
+        <v>0</v>
+      </c>
+      <c r="U8" s="12">
+        <v>0</v>
+      </c>
+      <c r="V8" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="W8" s="42" t="s">
-        <v>260</v>
-      </c>
-      <c r="X8" s="42" t="s">
-        <v>260</v>
-      </c>
-      <c r="Y8" s="42" t="s">
-        <v>260</v>
-      </c>
-      <c r="Z8" s="42" t="s">
-        <v>260</v>
-      </c>
-      <c r="AA8" s="42" t="s">
-        <v>260</v>
-      </c>
-      <c r="AB8" s="42" t="s">
-        <v>260</v>
-      </c>
-      <c r="AC8" s="42" t="s">
+      <c r="W8" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="X8" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y8" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="Z8" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="AA8" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="AB8" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="AC8" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="AD8" s="42" t="s">
-        <v>260</v>
-      </c>
-      <c r="AE8" s="42" t="s">
-        <v>260</v>
-      </c>
-      <c r="AF8" s="42" t="s">
-        <v>260</v>
-      </c>
-      <c r="AG8" s="42">
+      <c r="AD8" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="AE8" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="AF8" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="AG8" s="12">
         <f>VLOOKUP(V8,units!$B$4:$C$7,2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="AH8" s="42">
+      <c r="AH8" s="12">
         <f>VLOOKUP(W8,units!$E$4:$F$7,2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="AI8" s="42">
+      <c r="AI8" s="12">
         <f>VLOOKUP(X8,units!$H$4:$I$7,2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="AJ8" s="42">
+      <c r="AJ8" s="12">
         <f>VLOOKUP(Y8,units!$K$4:$L$7,2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="AK8" s="42">
+      <c r="AK8" s="12">
         <f>VLOOKUP(Z8,units!$E$4:$F$7,2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="AL8" s="42">
+      <c r="AL8" s="12">
         <f>VLOOKUP(AA8,units!$E$4:$F$7,2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="AM8" s="42">
+      <c r="AM8" s="12">
         <f>VLOOKUP(AB8,units!$E$4:$F$7,2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="AN8" s="42">
+      <c r="AN8" s="12">
         <f>VLOOKUP(AC8,units!$B$4:$C$7,2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="AO8" s="42">
+      <c r="AO8" s="12">
         <f>VLOOKUP(AD8,units!$E$4:$F$7,2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="AP8" s="42">
+      <c r="AP8" s="12">
         <f>VLOOKUP(AE8,units!$H$4:$I$7,2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="AQ8" s="42">
+      <c r="AQ8" s="12">
         <f>VLOOKUP(AF8,units!$N$4:$O$7,2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="AR8" s="45">
-        <v>1</v>
-      </c>
-      <c r="AS8" s="45">
-        <v>0</v>
-      </c>
-      <c r="AT8" s="45">
-        <v>0</v>
-      </c>
-      <c r="AU8" s="45">
-        <v>0</v>
-      </c>
-      <c r="AV8" s="45">
-        <v>0</v>
-      </c>
-      <c r="AW8" s="45">
-        <v>0</v>
-      </c>
-      <c r="AX8" s="45">
-        <v>0</v>
-      </c>
-      <c r="AY8" s="45">
-        <v>0</v>
-      </c>
-      <c r="AZ8" s="45">
-        <v>1</v>
-      </c>
-      <c r="BA8" s="45">
-        <v>0</v>
-      </c>
-      <c r="BB8" s="45">
-        <v>0</v>
-      </c>
-      <c r="BC8" s="42">
-        <v>1</v>
-      </c>
-      <c r="BD8" s="42">
-        <v>1</v>
-      </c>
-      <c r="BE8" s="42">
-        <v>0</v>
-      </c>
-      <c r="BF8" s="42">
+      <c r="AR8" s="49">
+        <v>1</v>
+      </c>
+      <c r="AS8" s="49">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="49">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="49">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="49">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="49">
+        <v>0</v>
+      </c>
+      <c r="AX8" s="49">
+        <v>0</v>
+      </c>
+      <c r="AY8" s="49">
+        <v>0</v>
+      </c>
+      <c r="AZ8" s="49">
+        <v>1</v>
+      </c>
+      <c r="BA8" s="49">
+        <v>0</v>
+      </c>
+      <c r="BB8" s="49">
+        <v>0</v>
+      </c>
+      <c r="BC8" s="12">
+        <v>1</v>
+      </c>
+      <c r="BD8" s="12">
+        <v>1</v>
+      </c>
+      <c r="BE8" s="12">
+        <v>0</v>
+      </c>
+      <c r="BF8" s="12">
         <v>5</v>
       </c>
-      <c r="BG8" s="42">
+      <c r="BG8" s="12">
         <v>9</v>
       </c>
-      <c r="BH8" s="42">
-        <v>0</v>
-      </c>
-      <c r="BI8" s="42">
+      <c r="BH8" s="12">
+        <v>0</v>
+      </c>
+      <c r="BI8" s="12">
         <v>400</v>
       </c>
-      <c r="BJ8" s="42">
+      <c r="BJ8" s="12">
         <v>5</v>
       </c>
-      <c r="BK8" s="42">
+      <c r="BK8" s="12">
         <v>9</v>
       </c>
-      <c r="BL8" s="42">
-        <v>0</v>
-      </c>
-      <c r="BM8" s="42">
+      <c r="BL8" s="12">
+        <v>0</v>
+      </c>
+      <c r="BM8" s="12">
         <v>400</v>
       </c>
-      <c r="BN8" s="42" t="s">
-        <v>132</v>
-      </c>
-      <c r="BO8" s="42" t="s">
-        <v>132</v>
-      </c>
-      <c r="BP8" s="42" t="s">
-        <v>132</v>
-      </c>
-      <c r="BQ8" s="42" t="s">
-        <v>132</v>
-      </c>
-      <c r="BR8" s="44" t="s">
+      <c r="BN8" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="BO8" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="BP8" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="BQ8" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR8" s="48" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="9" spans="1:70" s="46" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="43" t="s">
+    <row r="9" spans="1:70" s="50" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="47" t="s">
         <v>318</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="48" t="s">
         <v>313</v>
       </c>
-      <c r="C9" s="44" t="str">
+      <c r="C9" s="48" t="str">
         <f t="shared" si="0"/>
         <v>edit Kuehn2020</v>
       </c>
-      <c r="D9" s="44" t="s">
+      <c r="D9" s="48" t="s">
         <v>315</v>
       </c>
-      <c r="E9" s="44" t="str">
+      <c r="E9" s="48" t="str">
         <f t="shared" si="1"/>
         <v>edit GMMValidation_Kuehn2020</v>
       </c>
-      <c r="F9" s="44" t="s">
+      <c r="F9" s="48" t="s">
         <v>205</v>
       </c>
-      <c r="G9" s="42" t="s">
+      <c r="G9" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="42" t="s">
+      <c r="H9" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="42" t="s">
+      <c r="I9" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="J9" s="45">
-        <v>0</v>
-      </c>
-      <c r="K9" s="42">
-        <v>1</v>
-      </c>
-      <c r="L9" s="42">
-        <v>1</v>
-      </c>
-      <c r="M9" s="42">
-        <v>0</v>
-      </c>
-      <c r="N9" s="42">
-        <v>0</v>
-      </c>
-      <c r="O9" s="42">
-        <v>0</v>
-      </c>
-      <c r="P9" s="42">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="42">
-        <v>0</v>
-      </c>
-      <c r="R9" s="42">
-        <v>1</v>
-      </c>
-      <c r="S9" s="42">
-        <v>0</v>
-      </c>
-      <c r="T9" s="42">
-        <v>0</v>
-      </c>
-      <c r="U9" s="42">
-        <v>0</v>
-      </c>
-      <c r="V9" s="42" t="s">
+      <c r="J9" s="49">
+        <v>0</v>
+      </c>
+      <c r="K9" s="12">
+        <v>1</v>
+      </c>
+      <c r="L9" s="12">
+        <v>1</v>
+      </c>
+      <c r="M9" s="12">
+        <v>0</v>
+      </c>
+      <c r="N9" s="12">
+        <v>0</v>
+      </c>
+      <c r="O9" s="12">
+        <v>0</v>
+      </c>
+      <c r="P9" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="12">
+        <v>0</v>
+      </c>
+      <c r="R9" s="12">
+        <v>1</v>
+      </c>
+      <c r="S9" s="12">
+        <v>0</v>
+      </c>
+      <c r="T9" s="12">
+        <v>0</v>
+      </c>
+      <c r="U9" s="12">
+        <v>0</v>
+      </c>
+      <c r="V9" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="W9" s="42" t="s">
+      <c r="W9" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="X9" s="42" t="s">
-        <v>260</v>
-      </c>
-      <c r="Y9" s="42" t="s">
-        <v>260</v>
-      </c>
-      <c r="Z9" s="42" t="s">
-        <v>260</v>
-      </c>
-      <c r="AA9" s="42" t="s">
-        <v>260</v>
-      </c>
-      <c r="AB9" s="42" t="s">
-        <v>260</v>
-      </c>
-      <c r="AC9" s="42" t="s">
+      <c r="X9" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y9" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="Z9" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="AA9" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="AB9" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="AC9" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="AD9" s="42" t="s">
-        <v>260</v>
-      </c>
-      <c r="AE9" s="42" t="s">
-        <v>260</v>
-      </c>
-      <c r="AF9" s="42" t="s">
-        <v>260</v>
-      </c>
-      <c r="AG9" s="42">
+      <c r="AD9" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="AE9" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="AF9" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="AG9" s="12">
         <f>VLOOKUP(V9,units!$B$4:$C$7,2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="AH9" s="42">
+      <c r="AH9" s="12">
         <f>VLOOKUP(W9,units!$E$4:$F$7,2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="AI9" s="42">
+      <c r="AI9" s="12">
         <f>VLOOKUP(X9,units!$H$4:$I$7,2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="AJ9" s="42">
+      <c r="AJ9" s="12">
         <f>VLOOKUP(Y9,units!$K$4:$L$7,2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="AK9" s="42">
+      <c r="AK9" s="12">
         <f>VLOOKUP(Z9,units!$E$4:$F$7,2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="AL9" s="42">
+      <c r="AL9" s="12">
         <f>VLOOKUP(AA9,units!$E$4:$F$7,2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="AM9" s="42">
+      <c r="AM9" s="12">
         <f>VLOOKUP(AB9,units!$E$4:$F$7,2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="AN9" s="42">
+      <c r="AN9" s="12">
         <f>VLOOKUP(AC9,units!$B$4:$C$7,2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="AO9" s="42">
+      <c r="AO9" s="12">
         <f>VLOOKUP(AD9,units!$E$4:$F$7,2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="AP9" s="42">
+      <c r="AP9" s="12">
         <f>VLOOKUP(AE9,units!$H$4:$I$7,2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="AQ9" s="42">
+      <c r="AQ9" s="12">
         <f>VLOOKUP(AF9,units!$N$4:$O$7,2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="AR9" s="45">
-        <v>1</v>
-      </c>
-      <c r="AS9" s="45">
-        <v>0</v>
-      </c>
-      <c r="AT9" s="45">
-        <v>0</v>
-      </c>
-      <c r="AU9" s="45">
-        <v>0</v>
-      </c>
-      <c r="AV9" s="45">
-        <v>0</v>
-      </c>
-      <c r="AW9" s="45">
-        <v>0</v>
-      </c>
-      <c r="AX9" s="45">
-        <v>0</v>
-      </c>
-      <c r="AY9" s="45">
-        <v>0</v>
-      </c>
-      <c r="AZ9" s="45">
-        <v>1</v>
-      </c>
-      <c r="BA9" s="45">
-        <v>0</v>
-      </c>
-      <c r="BB9" s="45">
-        <v>0</v>
-      </c>
-      <c r="BC9" s="42">
-        <v>1</v>
-      </c>
-      <c r="BD9" s="42">
-        <v>1</v>
-      </c>
-      <c r="BE9" s="42">
-        <v>0</v>
-      </c>
-      <c r="BF9" s="42">
+      <c r="AR9" s="49">
+        <v>1</v>
+      </c>
+      <c r="AS9" s="49">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="49">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="49">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="49">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="49">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="49">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="49">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="49">
+        <v>1</v>
+      </c>
+      <c r="BA9" s="49">
+        <v>0</v>
+      </c>
+      <c r="BB9" s="49">
+        <v>0</v>
+      </c>
+      <c r="BC9" s="12">
+        <v>1</v>
+      </c>
+      <c r="BD9" s="12">
+        <v>1</v>
+      </c>
+      <c r="BE9" s="12">
+        <v>0</v>
+      </c>
+      <c r="BF9" s="12">
         <v>5</v>
       </c>
-      <c r="BG9" s="42">
+      <c r="BG9" s="12">
         <v>9</v>
       </c>
-      <c r="BH9" s="42">
-        <v>0</v>
-      </c>
-      <c r="BI9" s="42">
+      <c r="BH9" s="12">
+        <v>0</v>
+      </c>
+      <c r="BI9" s="12">
         <v>400</v>
       </c>
-      <c r="BJ9" s="42">
+      <c r="BJ9" s="12">
         <v>5</v>
       </c>
-      <c r="BK9" s="42">
+      <c r="BK9" s="12">
         <v>9</v>
       </c>
-      <c r="BL9" s="42">
-        <v>0</v>
-      </c>
-      <c r="BM9" s="42">
+      <c r="BL9" s="12">
+        <v>0</v>
+      </c>
+      <c r="BM9" s="12">
         <v>400</v>
       </c>
-      <c r="BN9" s="42" t="s">
-        <v>132</v>
-      </c>
-      <c r="BO9" s="42" t="s">
-        <v>132</v>
-      </c>
-      <c r="BP9" s="42" t="s">
-        <v>132</v>
-      </c>
-      <c r="BQ9" s="42" t="s">
-        <v>132</v>
-      </c>
-      <c r="BR9" s="44" t="s">
+      <c r="BN9" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="BO9" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="BP9" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="BQ9" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR9" s="48" t="s">
         <v>317</v>
       </c>
     </row>
@@ -5492,21 +5731,21 @@
     </row>
     <row r="15" spans="1:70" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
-        <v>20</v>
+        <v>319</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>100</v>
+        <v>320</v>
       </c>
       <c r="C15" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>edit SiberRisk2019</v>
+        <f t="shared" ref="C15" si="2">"edit "&amp;B15</f>
+        <v>edit Montalva2018</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>162</v>
+        <v>321</v>
       </c>
       <c r="E15" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>edit GMMValidation_SiberRisk2019</v>
+        <f t="shared" ref="E15" si="3">"edit "&amp;D15</f>
+        <v>edit GMMValidation_Montalva2018</v>
       </c>
       <c r="F15" s="17" t="s">
         <v>206</v>
@@ -5527,7 +5766,7 @@
         <v>1</v>
       </c>
       <c r="L15" s="35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" s="35">
         <v>0</v>
@@ -5560,7 +5799,7 @@
         <v>42</v>
       </c>
       <c r="W15" s="37" t="s">
-        <v>118</v>
+        <v>260</v>
       </c>
       <c r="X15" s="37" t="s">
         <v>260</v>
@@ -5595,7 +5834,7 @@
       </c>
       <c r="AH15" s="39">
         <f>VLOOKUP(W15,units!$E$4:$F$7,2,FALSE)</f>
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="AI15" s="39">
         <f>VLOOKUP(X15,units!$H$4:$I$7,2,FALSE)</f>
@@ -5712,38 +5951,38 @@
         <v>132</v>
       </c>
       <c r="BR15" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:70" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C16" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>edit Garcia2005</v>
+        <v>edit SiberRisk2019</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E16" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>edit GMMValidation_Garcia2005</v>
+        <v>edit GMMValidation_SiberRisk2019</v>
       </c>
       <c r="F16" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="G16" s="24">
-        <v>10</v>
+      <c r="G16" s="24" t="s">
+        <v>40</v>
       </c>
       <c r="H16" s="24" t="s">
         <v>43</v>
       </c>
       <c r="I16" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J16" s="23">
         <v>0</v>
@@ -5782,10 +6021,10 @@
         <v>0</v>
       </c>
       <c r="V16" s="37" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="W16" s="37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="X16" s="37" t="s">
         <v>260</v>
@@ -5803,7 +6042,7 @@
         <v>260</v>
       </c>
       <c r="AC16" s="37" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="AD16" s="37" t="s">
         <v>260</v>
@@ -5814,13 +6053,13 @@
       <c r="AF16" s="37" t="s">
         <v>260</v>
       </c>
-      <c r="AG16" s="39" t="str">
+      <c r="AG16" s="39">
         <f>VLOOKUP(V16,units!$B$4:$C$7,2,FALSE)</f>
-        <v>1/980.66</v>
+        <v>1</v>
       </c>
       <c r="AH16" s="39">
         <f>VLOOKUP(W16,units!$E$4:$F$7,2,FALSE)</f>
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="AI16" s="39">
         <f>VLOOKUP(X16,units!$H$4:$I$7,2,FALSE)</f>
@@ -5842,9 +6081,9 @@
         <f>VLOOKUP(AB16,units!$E$4:$F$7,2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="AN16" s="39" t="str">
+      <c r="AN16" s="39">
         <f>VLOOKUP(AC16,units!$B$4:$C$7,2,FALSE)</f>
-        <v>1/980.66</v>
+        <v>1</v>
       </c>
       <c r="AO16" s="39">
         <f>VLOOKUP(AD16,units!$E$4:$F$7,2,FALSE)</f>
@@ -5892,7 +6131,7 @@
         <v>0</v>
       </c>
       <c r="BC16" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD16" s="21">
         <v>1</v>
@@ -5900,29 +6139,29 @@
       <c r="BE16" s="21">
         <v>0</v>
       </c>
-      <c r="BF16" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="BG16" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="BH16" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="BI16" s="6" t="s">
-        <v>132</v>
+      <c r="BF16" s="6">
+        <v>5</v>
+      </c>
+      <c r="BG16" s="6">
+        <v>9</v>
+      </c>
+      <c r="BH16" s="6">
+        <v>0</v>
+      </c>
+      <c r="BI16" s="6">
+        <v>300</v>
       </c>
       <c r="BJ16" s="10">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="BK16" s="10">
-        <v>7.4</v>
+        <v>9</v>
       </c>
       <c r="BL16" s="10">
         <v>0</v>
       </c>
       <c r="BM16" s="10">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="BN16" s="14" t="s">
         <v>132</v>
@@ -5937,35 +6176,35 @@
         <v>132</v>
       </c>
       <c r="BR16" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:70" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C17" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>edit Jaimes2006</v>
+        <v>edit Garcia2005</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E17" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>edit GMMValidation_Jaimes2006</v>
+        <v>edit GMMValidation_Garcia2005</v>
       </c>
       <c r="F17" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="G17" s="24" t="s">
-        <v>40</v>
+      <c r="G17" s="24">
+        <v>10</v>
       </c>
       <c r="H17" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I17" s="24" t="s">
         <v>44</v>
@@ -5977,7 +6216,7 @@
         <v>1</v>
       </c>
       <c r="L17" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" s="35">
         <v>0</v>
@@ -6010,7 +6249,7 @@
         <v>89</v>
       </c>
       <c r="W17" s="37" t="s">
-        <v>260</v>
+        <v>119</v>
       </c>
       <c r="X17" s="37" t="s">
         <v>260</v>
@@ -6087,7 +6326,7 @@
         <v>1</v>
       </c>
       <c r="AS17" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT17" s="18">
         <v>0</v>
@@ -6117,37 +6356,37 @@
         <v>0</v>
       </c>
       <c r="BC17" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE17" s="21">
         <v>0</v>
       </c>
-      <c r="BF17" s="6">
-        <v>6</v>
-      </c>
-      <c r="BG17" s="6">
-        <v>8.1</v>
-      </c>
-      <c r="BH17" s="6">
-        <v>280</v>
-      </c>
-      <c r="BI17" s="6">
-        <v>530</v>
-      </c>
-      <c r="BJ17" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="BK17" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="BL17" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="BM17" s="10" t="s">
-        <v>132</v>
+      <c r="BF17" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="BG17" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="BH17" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="BI17" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="BJ17" s="10">
+        <v>5.2</v>
+      </c>
+      <c r="BK17" s="10">
+        <v>7.4</v>
+      </c>
+      <c r="BL17" s="10">
+        <v>0</v>
+      </c>
+      <c r="BM17" s="10">
+        <v>400</v>
       </c>
       <c r="BN17" s="14" t="s">
         <v>132</v>
@@ -6162,26 +6401,26 @@
         <v>132</v>
       </c>
       <c r="BR17" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:70" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C18" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>edit Jaimes2015</v>
+        <v>edit Jaimes2006</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E18" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>edit GMMValidation_Jaimes2015</v>
+        <v>edit GMMValidation_Jaimes2006</v>
       </c>
       <c r="F18" s="17" t="s">
         <v>206</v>
@@ -6202,7 +6441,7 @@
         <v>1</v>
       </c>
       <c r="L18" s="35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" s="35">
         <v>0</v>
@@ -6235,7 +6474,7 @@
         <v>89</v>
       </c>
       <c r="W18" s="37" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="X18" s="37" t="s">
         <v>260</v>
@@ -6342,37 +6581,37 @@
         <v>0</v>
       </c>
       <c r="BC18" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD18" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE18" s="21">
         <v>0</v>
       </c>
-      <c r="BF18" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="BG18" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="BH18" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="BI18" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="BJ18" s="10">
-        <v>5.2</v>
-      </c>
-      <c r="BK18" s="10">
-        <v>7.5</v>
-      </c>
-      <c r="BL18" s="10">
-        <v>103</v>
-      </c>
-      <c r="BM18" s="10">
-        <v>464</v>
+      <c r="BF18" s="6">
+        <v>6</v>
+      </c>
+      <c r="BG18" s="6">
+        <v>8.1</v>
+      </c>
+      <c r="BH18" s="6">
+        <v>280</v>
+      </c>
+      <c r="BI18" s="6">
+        <v>530</v>
+      </c>
+      <c r="BJ18" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="BK18" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="BL18" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="BM18" s="10" t="s">
+        <v>132</v>
       </c>
       <c r="BN18" s="14" t="s">
         <v>132</v>
@@ -6387,26 +6626,26 @@
         <v>132</v>
       </c>
       <c r="BR18" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:70" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C19" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>edit Jaimes2016</v>
+        <v>edit Jaimes2015</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E19" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>edit GMMValidation_Jaimes2016</v>
+        <v>edit GMMValidation_Jaimes2015</v>
       </c>
       <c r="F19" s="17" t="s">
         <v>206</v>
@@ -6570,10 +6809,10 @@
         <v>0</v>
       </c>
       <c r="BD19" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE19" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF19" s="6" t="s">
         <v>132</v>
@@ -6587,54 +6826,54 @@
       <c r="BI19" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="BJ19" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="BK19" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="BL19" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="BM19" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="BN19" s="14">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="BO19" s="14">
-        <v>3.8</v>
-      </c>
-      <c r="BP19" s="14">
-        <v>8</v>
-      </c>
-      <c r="BQ19" s="14">
-        <v>60</v>
+      <c r="BJ19" s="10">
+        <v>5.2</v>
+      </c>
+      <c r="BK19" s="10">
+        <v>7.5</v>
+      </c>
+      <c r="BL19" s="10">
+        <v>103</v>
+      </c>
+      <c r="BM19" s="10">
+        <v>464</v>
+      </c>
+      <c r="BN19" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="BO19" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="BP19" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="BQ19" s="14" t="s">
+        <v>132</v>
       </c>
       <c r="BR19" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:70" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C20" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>edit GarciaJaimes2017</v>
+        <v>edit Jaimes2016</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E20" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>edit GMMValidation_GarciaJaimes2017</v>
+        <v>edit GMMValidation_Jaimes2016</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G20" s="24" t="s">
         <v>40</v>
@@ -6792,71 +7031,71 @@
         <v>0</v>
       </c>
       <c r="BC20" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="21">
         <v>0</v>
       </c>
       <c r="BE20" s="21">
-        <v>0</v>
-      </c>
-      <c r="BF20" s="6">
-        <v>5</v>
-      </c>
-      <c r="BG20" s="6">
+        <v>1</v>
+      </c>
+      <c r="BF20" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="BG20" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="BH20" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="BI20" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="BJ20" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="BK20" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="BL20" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="BM20" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="BN20" s="14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="BO20" s="14">
+        <v>3.8</v>
+      </c>
+      <c r="BP20" s="14">
         <v>8</v>
       </c>
-      <c r="BH20" s="6">
-        <v>0</v>
-      </c>
-      <c r="BI20" s="6">
-        <v>400</v>
-      </c>
-      <c r="BJ20" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="BK20" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="BL20" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="BM20" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="BN20" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="BO20" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="BP20" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="BQ20" s="14" t="s">
-        <v>132</v>
+      <c r="BQ20" s="14">
+        <v>60</v>
       </c>
       <c r="BR20" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:70" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
-        <v>203</v>
+        <v>25</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>202</v>
+        <v>105</v>
       </c>
       <c r="C21" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>edit GarciaJaimes2017HV</v>
+        <v>edit GarciaJaimes2017</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>201</v>
+        <v>167</v>
       </c>
       <c r="E21" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>edit GMMValidation_GarciaJaimes2017HV</v>
+        <v>edit GMMValidation_GarciaJaimes2017</v>
       </c>
       <c r="F21" s="17" t="s">
         <v>207</v>
@@ -6874,10 +7113,10 @@
         <v>0</v>
       </c>
       <c r="K21" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" s="35">
         <v>0</v>
@@ -6895,7 +7134,7 @@
         <v>0</v>
       </c>
       <c r="R21" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S21" s="35">
         <v>0</v>
@@ -6904,13 +7143,13 @@
         <v>0</v>
       </c>
       <c r="U21" s="35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V21" s="37" t="s">
-        <v>260</v>
+        <v>89</v>
       </c>
       <c r="W21" s="37" t="s">
-        <v>260</v>
+        <v>119</v>
       </c>
       <c r="X21" s="37" t="s">
         <v>260</v>
@@ -6928,7 +7167,7 @@
         <v>260</v>
       </c>
       <c r="AC21" s="37" t="s">
-        <v>260</v>
+        <v>89</v>
       </c>
       <c r="AD21" s="37" t="s">
         <v>260</v>
@@ -6939,9 +7178,9 @@
       <c r="AF21" s="37" t="s">
         <v>260</v>
       </c>
-      <c r="AG21" s="39">
+      <c r="AG21" s="39" t="str">
         <f>VLOOKUP(V21,units!$B$4:$C$7,2,FALSE)</f>
-        <v>1</v>
+        <v>1/980.66</v>
       </c>
       <c r="AH21" s="39">
         <f>VLOOKUP(W21,units!$E$4:$F$7,2,FALSE)</f>
@@ -6967,9 +7206,9 @@
         <f>VLOOKUP(AB21,units!$E$4:$F$7,2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="AN21" s="39">
+      <c r="AN21" s="39" t="str">
         <f>VLOOKUP(AC21,units!$B$4:$C$7,2,FALSE)</f>
-        <v>1</v>
+        <v>1/980.66</v>
       </c>
       <c r="AO21" s="39">
         <f>VLOOKUP(AD21,units!$E$4:$F$7,2,FALSE)</f>
@@ -7067,21 +7306,21 @@
     </row>
     <row r="22" spans="1:70" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
-        <v>26</v>
+        <v>203</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>106</v>
+        <v>202</v>
       </c>
       <c r="C22" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>edit Bernal2014</v>
+        <v>edit GarciaJaimes2017HV</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
       <c r="E22" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>edit GMMValidation_Bernal2014</v>
+        <v>edit GMMValidation_GarciaJaimes2017HV</v>
       </c>
       <c r="F22" s="17" t="s">
         <v>207</v>
@@ -7099,7 +7338,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" s="35">
         <v>0</v>
@@ -7120,7 +7359,7 @@
         <v>0</v>
       </c>
       <c r="R22" s="35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S22" s="35">
         <v>0</v>
@@ -7129,10 +7368,10 @@
         <v>0</v>
       </c>
       <c r="U22" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V22" s="37" t="s">
-        <v>89</v>
+        <v>260</v>
       </c>
       <c r="W22" s="37" t="s">
         <v>260</v>
@@ -7153,7 +7392,7 @@
         <v>260</v>
       </c>
       <c r="AC22" s="37" t="s">
-        <v>89</v>
+        <v>260</v>
       </c>
       <c r="AD22" s="37" t="s">
         <v>260</v>
@@ -7164,9 +7403,9 @@
       <c r="AF22" s="37" t="s">
         <v>260</v>
       </c>
-      <c r="AG22" s="39" t="str">
+      <c r="AG22" s="39">
         <f>VLOOKUP(V22,units!$B$4:$C$7,2,FALSE)</f>
-        <v>1/980.66</v>
+        <v>1</v>
       </c>
       <c r="AH22" s="39">
         <f>VLOOKUP(W22,units!$E$4:$F$7,2,FALSE)</f>
@@ -7192,9 +7431,9 @@
         <f>VLOOKUP(AB22,units!$E$4:$F$7,2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="AN22" s="39" t="str">
+      <c r="AN22" s="39">
         <f>VLOOKUP(AC22,units!$B$4:$C$7,2,FALSE)</f>
-        <v>1/980.66</v>
+        <v>1</v>
       </c>
       <c r="AO22" s="39">
         <f>VLOOKUP(AD22,units!$E$4:$F$7,2,FALSE)</f>
@@ -7245,34 +7484,34 @@
         <v>1</v>
       </c>
       <c r="BD22" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE22" s="21">
         <v>0</v>
       </c>
       <c r="BF22" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BG22" s="6">
         <v>8</v>
       </c>
       <c r="BH22" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="6">
-        <v>500</v>
-      </c>
-      <c r="BJ22" s="10">
-        <v>4</v>
-      </c>
-      <c r="BK22" s="10">
-        <v>8</v>
-      </c>
-      <c r="BL22" s="10">
-        <v>5</v>
-      </c>
-      <c r="BM22" s="10">
-        <v>500</v>
+        <v>400</v>
+      </c>
+      <c r="BJ22" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="BK22" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="BL22" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="BM22" s="10" t="s">
+        <v>132</v>
       </c>
       <c r="BN22" s="14" t="s">
         <v>132</v>
@@ -7287,26 +7526,26 @@
         <v>132</v>
       </c>
       <c r="BR22" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:70" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C23" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>edit Sadigh1997</v>
+        <v>edit Bernal2014</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E23" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>edit GMMValidation_Sadigh1997</v>
+        <v>edit GMMValidation_Bernal2014</v>
       </c>
       <c r="F23" s="17" t="s">
         <v>207</v>
@@ -7321,7 +7560,7 @@
         <v>44</v>
       </c>
       <c r="J23" s="23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K23" s="35">
         <v>1</v>
@@ -7357,7 +7596,7 @@
         <v>0</v>
       </c>
       <c r="V23" s="37" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="W23" s="37" t="s">
         <v>260</v>
@@ -7378,7 +7617,7 @@
         <v>260</v>
       </c>
       <c r="AC23" s="37" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="AD23" s="37" t="s">
         <v>260</v>
@@ -7389,9 +7628,9 @@
       <c r="AF23" s="37" t="s">
         <v>260</v>
       </c>
-      <c r="AG23" s="39">
+      <c r="AG23" s="39" t="str">
         <f>VLOOKUP(V23,units!$B$4:$C$7,2,FALSE)</f>
-        <v>1</v>
+        <v>1/980.66</v>
       </c>
       <c r="AH23" s="39">
         <f>VLOOKUP(W23,units!$E$4:$F$7,2,FALSE)</f>
@@ -7417,9 +7656,9 @@
         <f>VLOOKUP(AB23,units!$E$4:$F$7,2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="AN23" s="39">
+      <c r="AN23" s="39" t="str">
         <f>VLOOKUP(AC23,units!$B$4:$C$7,2,FALSE)</f>
-        <v>1</v>
+        <v>1/980.66</v>
       </c>
       <c r="AO23" s="39">
         <f>VLOOKUP(AD23,units!$E$4:$F$7,2,FALSE)</f>
@@ -7467,71 +7706,71 @@
         <v>0</v>
       </c>
       <c r="BC23" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD23" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE23" s="21">
-        <v>1</v>
-      </c>
-      <c r="BF23" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="BG23" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="BH23" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="BI23" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="BJ23" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="BK23" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="BL23" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="BM23" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="BN23" s="14">
+        <v>0</v>
+      </c>
+      <c r="BF23" s="6">
         <v>4</v>
       </c>
-      <c r="BO23" s="14">
+      <c r="BG23" s="6">
         <v>8</v>
       </c>
-      <c r="BP23" s="14">
-        <v>0.01</v>
-      </c>
-      <c r="BQ23" s="14">
-        <v>200</v>
+      <c r="BH23" s="6">
+        <v>5</v>
+      </c>
+      <c r="BI23" s="6">
+        <v>500</v>
+      </c>
+      <c r="BJ23" s="10">
+        <v>4</v>
+      </c>
+      <c r="BK23" s="10">
+        <v>8</v>
+      </c>
+      <c r="BL23" s="10">
+        <v>5</v>
+      </c>
+      <c r="BM23" s="10">
+        <v>500</v>
+      </c>
+      <c r="BN23" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="BO23" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="BP23" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="BQ23" s="14" t="s">
+        <v>132</v>
       </c>
       <c r="BR23" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:70" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="C24" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>edit I2008</v>
+        <v>edit Sadigh1997</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E24" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>edit GMMValidation_I2008</v>
+        <v>edit GMMValidation_Sadigh1997</v>
       </c>
       <c r="F24" s="17" t="s">
         <v>207</v>
@@ -7543,10 +7782,10 @@
         <v>44</v>
       </c>
       <c r="I24" s="24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J24" s="23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K24" s="35">
         <v>1</v>
@@ -7725,38 +7964,38 @@
         <v>132</v>
       </c>
       <c r="BN24" s="14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BO24" s="14">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BP24" s="14">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="BQ24" s="14">
         <v>200</v>
       </c>
       <c r="BR24" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:70" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C25" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>edit CY2008</v>
+        <v>edit I2008</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E25" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>edit GMMValidation_CY2008</v>
+        <v>edit GMMValidation_I2008</v>
       </c>
       <c r="F25" s="17" t="s">
         <v>207</v>
@@ -7765,19 +8004,19 @@
         <v>40</v>
       </c>
       <c r="H25" s="24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I25" s="24" t="s">
         <v>43</v>
       </c>
       <c r="J25" s="23">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K25" s="35">
         <v>1</v>
       </c>
       <c r="L25" s="35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25" s="35">
         <v>0</v>
@@ -7810,7 +8049,7 @@
         <v>42</v>
       </c>
       <c r="W25" s="37" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="X25" s="37" t="s">
         <v>260</v>
@@ -7890,7 +8129,7 @@
         <v>0</v>
       </c>
       <c r="AT25" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU25" s="18">
         <v>0</v>
@@ -7899,16 +8138,16 @@
         <v>0</v>
       </c>
       <c r="AW25" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX25" s="18">
         <v>0</v>
       </c>
       <c r="AY25" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ25" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA25" s="18">
         <v>0</v>
@@ -7950,7 +8189,7 @@
         <v>132</v>
       </c>
       <c r="BN25" s="14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BO25" s="14">
         <v>8.5</v>
@@ -7962,26 +8201,26 @@
         <v>200</v>
       </c>
       <c r="BR25" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:70" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C26" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>edit BA2008</v>
+        <v>edit CY2008</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E26" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>edit GMMValidation_BA2008</v>
+        <v>edit GMMValidation_CY2008</v>
       </c>
       <c r="F26" s="17" t="s">
         <v>207</v>
@@ -7996,7 +8235,7 @@
         <v>43</v>
       </c>
       <c r="J26" s="23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K26" s="35">
         <v>1</v>
@@ -8109,7 +8348,7 @@
         <v>1</v>
       </c>
       <c r="AR26" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS26" s="18">
         <v>0</v>
@@ -8124,7 +8363,7 @@
         <v>0</v>
       </c>
       <c r="AW26" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX26" s="18">
         <v>0</v>
@@ -8133,7 +8372,7 @@
         <v>0</v>
       </c>
       <c r="AZ26" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA26" s="18">
         <v>0</v>
@@ -8175,38 +8414,38 @@
         <v>132</v>
       </c>
       <c r="BN26" s="14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BO26" s="14">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="BP26" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ26" s="14">
         <v>200</v>
       </c>
       <c r="BR26" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:70" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
-        <v>2</v>
+      <c r="A27" s="16" t="s">
+        <v>10</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C27" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>edit CB2008</v>
+        <v>edit BA2008</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E27" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>edit GMMValidation_CB2008</v>
+        <v>edit GMMValidation_BA2008</v>
       </c>
       <c r="F27" s="17" t="s">
         <v>207</v>
@@ -8221,7 +8460,7 @@
         <v>43</v>
       </c>
       <c r="J27" s="23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K27" s="35">
         <v>1</v>
@@ -8230,7 +8469,7 @@
         <v>1</v>
       </c>
       <c r="M27" s="35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27" s="35">
         <v>0</v>
@@ -8263,7 +8502,7 @@
         <v>119</v>
       </c>
       <c r="X27" s="37" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="Y27" s="37" t="s">
         <v>260</v>
@@ -8334,7 +8573,7 @@
         <v>1</v>
       </c>
       <c r="AR27" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS27" s="18">
         <v>0</v>
@@ -8358,7 +8597,7 @@
         <v>0</v>
       </c>
       <c r="AZ27" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA27" s="18">
         <v>0</v>
@@ -8400,41 +8639,41 @@
         <v>132</v>
       </c>
       <c r="BN27" s="14">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="BO27" s="14">
         <v>8</v>
       </c>
       <c r="BP27" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ27" s="14">
         <v>200</v>
       </c>
       <c r="BR27" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:70" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
-        <v>30</v>
+      <c r="A28" s="17" t="s">
+        <v>2</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C28" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>edit AS2008</v>
+        <v>edit CB2008</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E28" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>edit GMMValidation_AS2008</v>
+        <v>edit GMMValidation_CB2008</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G28" s="24" t="s">
         <v>40</v>
@@ -8446,7 +8685,7 @@
         <v>43</v>
       </c>
       <c r="J28" s="23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K28" s="35">
         <v>1</v>
@@ -8455,7 +8694,7 @@
         <v>1</v>
       </c>
       <c r="M28" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28" s="35">
         <v>0</v>
@@ -8488,7 +8727,7 @@
         <v>119</v>
       </c>
       <c r="X28" s="37" t="s">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="Y28" s="37" t="s">
         <v>260</v>
@@ -8574,7 +8813,7 @@
         <v>0</v>
       </c>
       <c r="AW28" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX28" s="18">
         <v>0</v>
@@ -8625,10 +8864,10 @@
         <v>132</v>
       </c>
       <c r="BN28" s="14">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="BO28" s="14">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BP28" s="14">
         <v>0</v>
@@ -8637,26 +8876,26 @@
         <v>200</v>
       </c>
       <c r="BR28" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:70" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>108</v>
+        <v>145</v>
       </c>
       <c r="C29" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>edit AS1997h</v>
+        <v>edit AS2008</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E29" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>edit GMMValidation_AS1997h</v>
+        <v>edit GMMValidation_AS2008</v>
       </c>
       <c r="F29" s="17" t="s">
         <v>208</v>
@@ -8665,19 +8904,19 @@
         <v>40</v>
       </c>
       <c r="H29" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I29" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J29" s="23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K29" s="35">
         <v>1</v>
       </c>
       <c r="L29" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" s="35">
         <v>0</v>
@@ -8710,7 +8949,7 @@
         <v>42</v>
       </c>
       <c r="W29" s="37" t="s">
-        <v>260</v>
+        <v>119</v>
       </c>
       <c r="X29" s="37" t="s">
         <v>260</v>
@@ -8790,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="AT29" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU29" s="18">
         <v>0</v>
@@ -8799,16 +9038,16 @@
         <v>0</v>
       </c>
       <c r="AW29" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX29" s="18">
         <v>0</v>
       </c>
       <c r="AY29" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ29" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA29" s="18">
         <v>0</v>
@@ -8850,38 +9089,38 @@
         <v>132</v>
       </c>
       <c r="BN29" s="14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BO29" s="14">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="BP29" s="14">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="BQ29" s="14">
         <v>200</v>
       </c>
       <c r="BR29" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:70" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="C30" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>edit I2014</v>
+        <v>edit AS1997h</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E30" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>edit GMMValidation_I2014</v>
+        <v>edit GMMValidation_AS1997h</v>
       </c>
       <c r="F30" s="17" t="s">
         <v>208</v>
@@ -8893,10 +9132,10 @@
         <v>44</v>
       </c>
       <c r="I30" s="24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J30" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" s="35">
         <v>1</v>
@@ -9030,7 +9269,7 @@
         <v>0</v>
       </c>
       <c r="AY30" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ30" s="18">
         <v>0</v>
@@ -9075,38 +9314,38 @@
         <v>132</v>
       </c>
       <c r="BN30" s="14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BO30" s="14">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="BP30" s="14">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="BQ30" s="14">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="BR30" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:70" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C31" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>edit CY2014</v>
+        <v>edit I2014</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E31" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>edit GMMValidation_CY2014</v>
+        <v>edit GMMValidation_I2014</v>
       </c>
       <c r="F31" s="17" t="s">
         <v>208</v>
@@ -9115,7 +9354,7 @@
         <v>40</v>
       </c>
       <c r="H31" s="24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I31" s="24" t="s">
         <v>43</v>
@@ -9127,7 +9366,7 @@
         <v>1</v>
       </c>
       <c r="L31" s="35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31" s="35">
         <v>0</v>
@@ -9160,7 +9399,7 @@
         <v>42</v>
       </c>
       <c r="W31" s="37" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="X31" s="37" t="s">
         <v>260</v>
@@ -9240,7 +9479,7 @@
         <v>0</v>
       </c>
       <c r="AT31" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU31" s="18">
         <v>0</v>
@@ -9249,7 +9488,7 @@
         <v>0</v>
       </c>
       <c r="AW31" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX31" s="18">
         <v>0</v>
@@ -9258,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="AZ31" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA31" s="18">
         <v>0</v>
@@ -9300,7 +9539,7 @@
         <v>132</v>
       </c>
       <c r="BN31" s="14">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="BO31" s="14">
         <v>8</v>
@@ -9309,32 +9548,32 @@
         <v>0</v>
       </c>
       <c r="BQ31" s="14">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="BR31" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:70" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C32" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>edit CB2014</v>
+        <v>edit CY2014</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E32" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>edit GMMValidation_CB2014</v>
+        <v>edit GMMValidation_CY2014</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G32" s="24" t="s">
         <v>40</v>
@@ -9459,7 +9698,7 @@
         <v>1</v>
       </c>
       <c r="AR32" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS32" s="18">
         <v>0</v>
@@ -9474,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="AW32" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX32" s="18">
         <v>0</v>
@@ -9483,7 +9722,7 @@
         <v>0</v>
       </c>
       <c r="AZ32" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA32" s="18">
         <v>0</v>
@@ -9525,10 +9764,10 @@
         <v>132</v>
       </c>
       <c r="BN32" s="14">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="BO32" s="14">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BP32" s="14">
         <v>0</v>
@@ -9537,29 +9776,29 @@
         <v>300</v>
       </c>
       <c r="BR32" s="25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:70" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C33" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>edit BSSA2014</v>
+        <v>edit CB2014</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E33" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>edit GMMValidation_BSSA2014</v>
+        <v>edit GMMValidation_CB2014</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G33" s="24" t="s">
         <v>40</v>
@@ -9684,7 +9923,7 @@
         <v>1</v>
       </c>
       <c r="AR33" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS33" s="18">
         <v>0</v>
@@ -9699,22 +9938,22 @@
         <v>0</v>
       </c>
       <c r="AW33" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX33" s="18">
         <v>0</v>
       </c>
       <c r="AY33" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ33" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA33" s="18">
         <v>0</v>
       </c>
       <c r="BB33" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC33" s="21">
         <v>0</v>
@@ -9759,29 +9998,29 @@
         <v>0</v>
       </c>
       <c r="BQ33" s="14">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="BR33" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:70" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C34" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>edit ASK2014</v>
+        <v>edit BSSA2014</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E34" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>edit GMMValidation_ASK2014</v>
+        <v>edit GMMValidation_BSSA2014</v>
       </c>
       <c r="F34" s="17" t="s">
         <v>210</v>
@@ -9927,10 +10166,10 @@
         <v>1</v>
       </c>
       <c r="AX34" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY34" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ34" s="18">
         <v>1</v>
@@ -9939,7 +10178,7 @@
         <v>0</v>
       </c>
       <c r="BB34" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC34" s="21">
         <v>0</v>
@@ -9984,41 +10223,41 @@
         <v>0</v>
       </c>
       <c r="BQ34" s="14">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="BR34" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:70" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="C35" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>edit AkkarBoomer2007</v>
+        <v>edit ASK2014</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E35" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>edit GMMValidation_AkkarBoomer2007</v>
+        <v>edit GMMValidation_ASK2014</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="G35" s="24">
-        <v>10</v>
+        <v>210</v>
+      </c>
+      <c r="G35" s="24" t="s">
+        <v>40</v>
       </c>
       <c r="H35" s="24" t="s">
         <v>43</v>
       </c>
       <c r="I35" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J35" s="23">
         <v>0</v>
@@ -10027,7 +10266,7 @@
         <v>1</v>
       </c>
       <c r="L35" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M35" s="35">
         <v>0</v>
@@ -10045,22 +10284,22 @@
         <v>0</v>
       </c>
       <c r="R35" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S35" s="35">
         <v>0</v>
       </c>
       <c r="T35" s="35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U35" s="35">
         <v>0</v>
       </c>
       <c r="V35" s="37" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="W35" s="37" t="s">
-        <v>260</v>
+        <v>119</v>
       </c>
       <c r="X35" s="37" t="s">
         <v>260</v>
@@ -10078,20 +10317,20 @@
         <v>260</v>
       </c>
       <c r="AC35" s="37" t="s">
-        <v>260</v>
+        <v>42</v>
       </c>
       <c r="AD35" s="37" t="s">
         <v>260</v>
       </c>
       <c r="AE35" s="37" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="AF35" s="37" t="s">
         <v>260</v>
       </c>
-      <c r="AG35" s="39" t="str">
+      <c r="AG35" s="39">
         <f>VLOOKUP(V35,units!$B$4:$C$7,2,FALSE)</f>
-        <v>1/980.66</v>
+        <v>1</v>
       </c>
       <c r="AH35" s="39">
         <f>VLOOKUP(W35,units!$E$4:$F$7,2,FALSE)</f>
@@ -10134,7 +10373,7 @@
         <v>1</v>
       </c>
       <c r="AR35" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS35" s="18">
         <v>0</v>
@@ -10149,16 +10388,16 @@
         <v>0</v>
       </c>
       <c r="AW35" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX35" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY35" s="18">
         <v>0</v>
       </c>
       <c r="AZ35" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA35" s="18">
         <v>0</v>
@@ -10200,41 +10439,41 @@
         <v>132</v>
       </c>
       <c r="BN35" s="14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BO35" s="14">
-        <v>7.6</v>
+        <v>8.5</v>
       </c>
       <c r="BP35" s="14">
         <v>0</v>
       </c>
       <c r="BQ35" s="14">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="BR35" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:70" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
-        <v>216</v>
+        <v>13</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>215</v>
+        <v>109</v>
       </c>
       <c r="C36" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>edit AkkarBoomer2010</v>
+        <v>edit AkkarBoomer2007</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>217</v>
+        <v>181</v>
       </c>
       <c r="E36" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>edit GMMValidation_AkkarBoomer2010</v>
+        <v>edit GMMValidation_AkkarBoomer2007</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G36" s="24">
         <v>10</v>
@@ -10246,13 +10485,13 @@
         <v>44</v>
       </c>
       <c r="J36" s="23">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K36" s="35">
         <v>1</v>
       </c>
       <c r="L36" s="35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M36" s="35">
         <v>0</v>
@@ -10270,13 +10509,13 @@
         <v>0</v>
       </c>
       <c r="R36" s="35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S36" s="35">
         <v>0</v>
       </c>
       <c r="T36" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U36" s="35">
         <v>0</v>
@@ -10285,7 +10524,7 @@
         <v>89</v>
       </c>
       <c r="W36" s="37" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="X36" s="37" t="s">
         <v>260</v>
@@ -10303,13 +10542,13 @@
         <v>260</v>
       </c>
       <c r="AC36" s="37" t="s">
-        <v>89</v>
+        <v>260</v>
       </c>
       <c r="AD36" s="37" t="s">
         <v>260</v>
       </c>
       <c r="AE36" s="37" t="s">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="AF36" s="37" t="s">
         <v>260</v>
@@ -10342,9 +10581,9 @@
         <f>VLOOKUP(AB36,units!$E$4:$F$7,2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="AN36" s="39" t="str">
+      <c r="AN36" s="39">
         <f>VLOOKUP(AC36,units!$B$4:$C$7,2,FALSE)</f>
-        <v>1/980.66</v>
+        <v>1</v>
       </c>
       <c r="AO36" s="39">
         <f>VLOOKUP(AD36,units!$E$4:$F$7,2,FALSE)</f>
@@ -10437,32 +10676,32 @@
         <v>100</v>
       </c>
       <c r="BR36" s="25" t="s">
-        <v>218</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:70" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
-        <v>34</v>
+        <v>216</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>110</v>
+        <v>215</v>
       </c>
       <c r="C37" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>edit Arroyo2010</v>
+        <v>edit AkkarBoomer2010</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="E37" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>edit GMMValidation_Arroyo2010</v>
+        <v>edit GMMValidation_AkkarBoomer2010</v>
       </c>
       <c r="F37" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="G37" s="24" t="s">
-        <v>40</v>
+      <c r="G37" s="24">
+        <v>10</v>
       </c>
       <c r="H37" s="24" t="s">
         <v>43</v>
@@ -10471,13 +10710,13 @@
         <v>44</v>
       </c>
       <c r="J37" s="23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K37" s="35">
         <v>1</v>
       </c>
       <c r="L37" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M37" s="35">
         <v>0</v>
@@ -10510,7 +10749,7 @@
         <v>89</v>
       </c>
       <c r="W37" s="37" t="s">
-        <v>260</v>
+        <v>119</v>
       </c>
       <c r="X37" s="37" t="s">
         <v>260</v>
@@ -10584,13 +10823,13 @@
         <v>1</v>
       </c>
       <c r="AR37" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS37" s="18">
         <v>0</v>
       </c>
       <c r="AT37" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU37" s="18">
         <v>0</v>
@@ -10617,77 +10856,77 @@
         <v>0</v>
       </c>
       <c r="BC37" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD37" s="21">
         <v>0</v>
       </c>
       <c r="BE37" s="21">
-        <v>0</v>
-      </c>
-      <c r="BF37" s="6">
+        <v>1</v>
+      </c>
+      <c r="BF37" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="BG37" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="BH37" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="BI37" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="BJ37" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="BK37" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="BL37" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="BM37" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="BN37" s="14">
         <v>5</v>
       </c>
-      <c r="BG37" s="6">
-        <v>8.5</v>
-      </c>
-      <c r="BH37" s="6">
-        <v>16</v>
-      </c>
-      <c r="BI37" s="6">
-        <v>400</v>
-      </c>
-      <c r="BJ37" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="BK37" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="BL37" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="BM37" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="BN37" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="BO37" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="BP37" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="BQ37" s="14" t="s">
-        <v>132</v>
+      <c r="BO37" s="14">
+        <v>7.6</v>
+      </c>
+      <c r="BP37" s="14">
+        <v>0</v>
+      </c>
+      <c r="BQ37" s="14">
+        <v>100</v>
       </c>
       <c r="BR37" s="25" t="s">
-        <v>75</v>
+        <v>218</v>
       </c>
     </row>
     <row r="38" spans="1:70" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C38" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>edit Bindi2011</v>
+        <v>edit Arroyo2010</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E38" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>edit GMMValidation_Bindi2011</v>
+        <v>edit GMMValidation_Arroyo2010</v>
       </c>
       <c r="F38" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="G38" s="24">
-        <v>10</v>
+      <c r="G38" s="24" t="s">
+        <v>40</v>
       </c>
       <c r="H38" s="24" t="s">
         <v>43</v>
@@ -10702,7 +10941,7 @@
         <v>1</v>
       </c>
       <c r="L38" s="35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M38" s="35">
         <v>0</v>
@@ -10735,7 +10974,7 @@
         <v>89</v>
       </c>
       <c r="W38" s="37" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="X38" s="37" t="s">
         <v>260</v>
@@ -10809,13 +11048,13 @@
         <v>1</v>
       </c>
       <c r="AR38" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS38" s="18">
         <v>0</v>
       </c>
       <c r="AT38" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU38" s="18">
         <v>0</v>
@@ -10842,25 +11081,25 @@
         <v>0</v>
       </c>
       <c r="BC38" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD38" s="21">
         <v>0</v>
       </c>
       <c r="BE38" s="21">
-        <v>1</v>
-      </c>
-      <c r="BF38" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="BG38" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="BH38" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="BI38" s="6" t="s">
-        <v>132</v>
+        <v>0</v>
+      </c>
+      <c r="BF38" s="6">
+        <v>5</v>
+      </c>
+      <c r="BG38" s="6">
+        <v>8.5</v>
+      </c>
+      <c r="BH38" s="6">
+        <v>16</v>
+      </c>
+      <c r="BI38" s="6">
+        <v>400</v>
       </c>
       <c r="BJ38" s="10" t="s">
         <v>132</v>
@@ -10874,54 +11113,54 @@
       <c r="BM38" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="BN38" s="14">
-        <v>4</v>
-      </c>
-      <c r="BO38" s="14">
-        <v>6.9</v>
-      </c>
-      <c r="BP38" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="BQ38" s="14">
-        <v>200</v>
+      <c r="BN38" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="BO38" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="BP38" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="BQ38" s="14" t="s">
+        <v>132</v>
       </c>
       <c r="BR38" s="25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:70" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
-        <v>222</v>
+        <v>35</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>219</v>
+        <v>111</v>
       </c>
       <c r="C39" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>edit Kanno2006</v>
+        <v>edit Bindi2011</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>220</v>
+        <v>183</v>
       </c>
       <c r="E39" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>edit GMMValidation_Kanno2006</v>
+        <v>edit GMMValidation_Bindi2011</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G39" s="24">
         <v>10</v>
       </c>
       <c r="H39" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="I39" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="I39" s="24" t="s">
-        <v>43</v>
-      </c>
       <c r="J39" s="23">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K39" s="35">
         <v>1</v>
@@ -11034,13 +11273,13 @@
         <v>1</v>
       </c>
       <c r="AR39" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS39" s="18">
         <v>0</v>
       </c>
       <c r="AT39" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU39" s="18">
         <v>0</v>
@@ -11055,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="AY39" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ39" s="18">
         <v>0</v>
@@ -11067,71 +11306,71 @@
         <v>0</v>
       </c>
       <c r="BC39" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD39" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE39" s="21">
-        <v>0</v>
-      </c>
-      <c r="BF39" s="6">
-        <v>5.5</v>
-      </c>
-      <c r="BG39" s="6">
-        <v>8</v>
-      </c>
-      <c r="BH39" s="6">
-        <v>1</v>
-      </c>
-      <c r="BI39" s="6">
-        <v>400</v>
-      </c>
-      <c r="BJ39" s="10">
-        <v>5.5</v>
-      </c>
-      <c r="BK39" s="10">
-        <v>8</v>
-      </c>
-      <c r="BL39" s="10">
-        <v>1</v>
-      </c>
-      <c r="BM39" s="10">
-        <v>400</v>
-      </c>
-      <c r="BN39" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="BO39" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="BP39" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="BQ39" s="14" t="s">
-        <v>132</v>
+        <v>1</v>
+      </c>
+      <c r="BF39" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="BG39" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="BH39" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="BI39" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="BJ39" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="BK39" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="BL39" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="BM39" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="BN39" s="14">
+        <v>4</v>
+      </c>
+      <c r="BO39" s="14">
+        <v>6.9</v>
+      </c>
+      <c r="BP39" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="BQ39" s="14">
+        <v>200</v>
       </c>
       <c r="BR39" s="25" t="s">
-        <v>221</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:70" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
-        <v>308</v>
+        <v>222</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>309</v>
+        <v>219</v>
       </c>
       <c r="C40" s="17" t="str">
-        <f>"edit "&amp;B40</f>
-        <v>edit Cauzzi2015</v>
+        <f t="shared" si="0"/>
+        <v>edit Kanno2006</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>310</v>
+        <v>220</v>
       </c>
       <c r="E40" s="17" t="str">
-        <f>"edit "&amp;D40</f>
-        <v>edit GMMValidation_Cauzzi2015</v>
+        <f t="shared" si="1"/>
+        <v>edit GMMValidation_Kanno2006</v>
       </c>
       <c r="F40" s="17" t="s">
         <v>213</v>
@@ -11140,13 +11379,13 @@
         <v>10</v>
       </c>
       <c r="H40" s="24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I40" s="24" t="s">
         <v>43</v>
       </c>
       <c r="J40" s="23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K40" s="35">
         <v>1</v>
@@ -11176,7 +11415,7 @@
         <v>0</v>
       </c>
       <c r="T40" s="35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U40" s="35">
         <v>0</v>
@@ -11209,7 +11448,7 @@
         <v>260</v>
       </c>
       <c r="AE40" s="37" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="AF40" s="37" t="s">
         <v>260</v>
@@ -11262,7 +11501,7 @@
         <v>1</v>
       </c>
       <c r="AS40" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT40" s="18">
         <v>0</v>
@@ -11280,7 +11519,7 @@
         <v>0</v>
       </c>
       <c r="AY40" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ40" s="18">
         <v>0</v>
@@ -11292,92 +11531,92 @@
         <v>0</v>
       </c>
       <c r="BC40" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD40" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE40" s="21">
-        <v>1</v>
-      </c>
-      <c r="BF40" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="BG40" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="BH40" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="BI40" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="BJ40" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="BK40" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="BL40" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="BM40" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="BN40" s="14">
-        <v>4.5</v>
-      </c>
-      <c r="BO40" s="14">
-        <v>7.9</v>
-      </c>
-      <c r="BP40" s="14">
-        <v>0</v>
-      </c>
-      <c r="BQ40" s="14">
-        <v>150</v>
+        <v>0</v>
+      </c>
+      <c r="BF40" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="BG40" s="6">
+        <v>8</v>
+      </c>
+      <c r="BH40" s="6">
+        <v>1</v>
+      </c>
+      <c r="BI40" s="6">
+        <v>400</v>
+      </c>
+      <c r="BJ40" s="10">
+        <v>5.5</v>
+      </c>
+      <c r="BK40" s="10">
+        <v>8</v>
+      </c>
+      <c r="BL40" s="10">
+        <v>1</v>
+      </c>
+      <c r="BM40" s="10">
+        <v>400</v>
+      </c>
+      <c r="BN40" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="BO40" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="BP40" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="BQ40" s="14" t="s">
+        <v>132</v>
       </c>
       <c r="BR40" s="25" t="s">
-        <v>311</v>
+        <v>221</v>
       </c>
     </row>
     <row r="41" spans="1:70" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
-        <v>36</v>
+        <v>308</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>112</v>
+        <v>309</v>
       </c>
       <c r="C41" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>edit DW12</v>
+        <f>"edit "&amp;B41</f>
+        <v>edit Cauzzi2015</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>184</v>
+        <v>310</v>
       </c>
       <c r="E41" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>edit GMMValidation_DW12</v>
+        <f>"edit "&amp;D41</f>
+        <v>edit GMMValidation_Cauzzi2015</v>
       </c>
       <c r="F41" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="G41" s="24" t="s">
-        <v>40</v>
+        <v>213</v>
+      </c>
+      <c r="G41" s="24">
+        <v>10</v>
       </c>
       <c r="H41" s="24" t="s">
         <v>43</v>
       </c>
       <c r="I41" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J41" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M41" s="35">
         <v>0</v>
@@ -11386,7 +11625,7 @@
         <v>0</v>
       </c>
       <c r="O41" s="35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P41" s="35">
         <v>0</v>
@@ -11395,22 +11634,22 @@
         <v>0</v>
       </c>
       <c r="R41" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S41" s="35">
         <v>0</v>
       </c>
       <c r="T41" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U41" s="35">
         <v>0</v>
       </c>
       <c r="V41" s="37" t="s">
-        <v>260</v>
+        <v>89</v>
       </c>
       <c r="W41" s="37" t="s">
-        <v>260</v>
+        <v>119</v>
       </c>
       <c r="X41" s="37" t="s">
         <v>260</v>
@@ -11419,7 +11658,7 @@
         <v>260</v>
       </c>
       <c r="Z41" s="37" t="s">
-        <v>117</v>
+        <v>260</v>
       </c>
       <c r="AA41" s="37" t="s">
         <v>260</v>
@@ -11428,20 +11667,20 @@
         <v>260</v>
       </c>
       <c r="AC41" s="37" t="s">
-        <v>260</v>
+        <v>89</v>
       </c>
       <c r="AD41" s="37" t="s">
         <v>260</v>
       </c>
       <c r="AE41" s="37" t="s">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="AF41" s="37" t="s">
         <v>260</v>
       </c>
-      <c r="AG41" s="39">
+      <c r="AG41" s="39" t="str">
         <f>VLOOKUP(V41,units!$B$4:$C$7,2,FALSE)</f>
-        <v>1</v>
+        <v>1/980.66</v>
       </c>
       <c r="AH41" s="39">
         <f>VLOOKUP(W41,units!$E$4:$F$7,2,FALSE)</f>
@@ -11457,7 +11696,7 @@
       </c>
       <c r="AK41" s="39">
         <f>VLOOKUP(Z41,units!$E$4:$F$7,2,FALSE)</f>
-        <v>980.66</v>
+        <v>1</v>
       </c>
       <c r="AL41" s="39">
         <f>VLOOKUP(AA41,units!$E$4:$F$7,2,FALSE)</f>
@@ -11467,9 +11706,9 @@
         <f>VLOOKUP(AB41,units!$E$4:$F$7,2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="AN41" s="39">
+      <c r="AN41" s="39" t="str">
         <f>VLOOKUP(AC41,units!$B$4:$C$7,2,FALSE)</f>
-        <v>1</v>
+        <v>1/980.66</v>
       </c>
       <c r="AO41" s="39">
         <f>VLOOKUP(AD41,units!$E$4:$F$7,2,FALSE)</f>
@@ -11487,7 +11726,7 @@
         <v>1</v>
       </c>
       <c r="AS41" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT41" s="18">
         <v>0</v>
@@ -11550,38 +11789,38 @@
         <v>132</v>
       </c>
       <c r="BN41" s="14">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="BO41" s="14">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="BP41" s="14">
         <v>0</v>
       </c>
       <c r="BQ41" s="14">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="BR41" s="25" t="s">
-        <v>77</v>
+        <v>311</v>
       </c>
     </row>
     <row r="42" spans="1:70" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C42" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>edit FG15</v>
+        <v>edit DW12</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E42" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>edit GMMValidation_FG15</v>
+        <v>edit GMMValidation_DW12</v>
       </c>
       <c r="F42" s="17" t="s">
         <v>212</v>
@@ -11593,7 +11832,7 @@
         <v>43</v>
       </c>
       <c r="I42" s="24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J42" s="23">
         <v>1</v>
@@ -11614,7 +11853,7 @@
         <v>1</v>
       </c>
       <c r="P42" s="35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42" s="35">
         <v>0</v>
@@ -11644,10 +11883,10 @@
         <v>260</v>
       </c>
       <c r="Z42" s="37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AA42" s="37" t="s">
-        <v>118</v>
+        <v>260</v>
       </c>
       <c r="AB42" s="37" t="s">
         <v>260</v>
@@ -11682,11 +11921,11 @@
       </c>
       <c r="AK42" s="39">
         <f>VLOOKUP(Z42,units!$E$4:$F$7,2,FALSE)</f>
-        <v>100</v>
+        <v>980.66</v>
       </c>
       <c r="AL42" s="39">
         <f>VLOOKUP(AA42,units!$E$4:$F$7,2,FALSE)</f>
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="AM42" s="39">
         <f>VLOOKUP(AB42,units!$E$4:$F$7,2,FALSE)</f>
@@ -11778,35 +12017,35 @@
         <v>5</v>
       </c>
       <c r="BO42" s="14">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BP42" s="14">
         <v>0</v>
       </c>
       <c r="BQ42" s="14">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="BR42" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:70" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C43" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>edit TBA03</v>
+        <v>edit FG15</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E43" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>edit GMMValidation_TBA03</v>
+        <v>edit GMMValidation_FG15</v>
       </c>
       <c r="F43" s="17" t="s">
         <v>212</v>
@@ -11818,7 +12057,7 @@
         <v>43</v>
       </c>
       <c r="I43" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J43" s="23">
         <v>1</v>
@@ -11836,7 +12075,7 @@
         <v>0</v>
       </c>
       <c r="O43" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P43" s="35">
         <v>1</v>
@@ -11869,7 +12108,7 @@
         <v>260</v>
       </c>
       <c r="Z43" s="37" t="s">
-        <v>260</v>
+        <v>118</v>
       </c>
       <c r="AA43" s="37" t="s">
         <v>118</v>
@@ -11907,7 +12146,7 @@
       </c>
       <c r="AK43" s="39">
         <f>VLOOKUP(Z43,units!$E$4:$F$7,2,FALSE)</f>
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="AL43" s="39">
         <f>VLOOKUP(AA43,units!$E$4:$F$7,2,FALSE)</f>
@@ -12000,38 +12239,38 @@
         <v>132</v>
       </c>
       <c r="BN43" s="14">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="BO43" s="14">
-        <v>7.6</v>
+        <v>9</v>
       </c>
       <c r="BP43" s="14">
         <v>0</v>
       </c>
       <c r="BQ43" s="14">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="BR43" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:70" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="16" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C44" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>edit BU17</v>
+        <v>edit TBA03</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E44" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>edit GMMValidation_BU17</v>
+        <v>edit GMMValidation_TBA03</v>
       </c>
       <c r="F44" s="17" t="s">
         <v>212</v>
@@ -12046,7 +12285,7 @@
         <v>44</v>
       </c>
       <c r="J44" s="23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K44" s="35">
         <v>0</v>
@@ -12061,13 +12300,13 @@
         <v>0</v>
       </c>
       <c r="O44" s="35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P44" s="35">
         <v>1</v>
       </c>
       <c r="Q44" s="35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R44" s="35">
         <v>0</v>
@@ -12094,13 +12333,13 @@
         <v>260</v>
       </c>
       <c r="Z44" s="37" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="AA44" s="37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AB44" s="37" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="AC44" s="37" t="s">
         <v>260</v>
@@ -12136,7 +12375,7 @@
       </c>
       <c r="AL44" s="39">
         <f>VLOOKUP(AA44,units!$E$4:$F$7,2,FALSE)</f>
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="AM44" s="39">
         <f>VLOOKUP(AB44,units!$E$4:$F$7,2,FALSE)</f>
@@ -12192,74 +12431,74 @@
         <v>0</v>
       </c>
       <c r="BC44" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD44" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE44" s="21">
         <v>1</v>
       </c>
-      <c r="BF44" s="6">
-        <v>5</v>
-      </c>
-      <c r="BG44" s="6">
-        <v>9</v>
-      </c>
-      <c r="BH44" s="6">
-        <v>0</v>
-      </c>
-      <c r="BI44" s="6">
-        <v>300</v>
-      </c>
-      <c r="BJ44" s="10">
-        <v>5</v>
-      </c>
-      <c r="BK44" s="10">
-        <v>9</v>
-      </c>
-      <c r="BL44" s="10">
-        <v>0</v>
-      </c>
-      <c r="BM44" s="10">
-        <v>300</v>
+      <c r="BF44" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="BG44" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="BH44" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="BI44" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="BJ44" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="BK44" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="BL44" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="BM44" s="10" t="s">
+        <v>132</v>
       </c>
       <c r="BN44" s="14">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="BO44" s="14">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="BP44" s="14">
         <v>0</v>
       </c>
       <c r="BQ44" s="14">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="BR44" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:70" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
-        <v>133</v>
+        <v>14</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="C45" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>edit CB10</v>
+        <v>edit BU17</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E45" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>edit GMMValidation_CB10</v>
+        <v>edit GMMValidation_BU17</v>
       </c>
       <c r="F45" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G45" s="24" t="s">
         <v>40</v>
@@ -12268,10 +12507,10 @@
         <v>43</v>
       </c>
       <c r="I45" s="24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J45" s="23">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="K45" s="35">
         <v>0</v>
@@ -12289,10 +12528,10 @@
         <v>1</v>
       </c>
       <c r="P45" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R45" s="35">
         <v>0</v>
@@ -12319,13 +12558,13 @@
         <v>260</v>
       </c>
       <c r="Z45" s="37" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AA45" s="37" t="s">
-        <v>260</v>
+        <v>119</v>
       </c>
       <c r="AB45" s="37" t="s">
-        <v>260</v>
+        <v>119</v>
       </c>
       <c r="AC45" s="37" t="s">
         <v>260</v>
@@ -12357,7 +12596,7 @@
       </c>
       <c r="AK45" s="39">
         <f>VLOOKUP(Z45,units!$E$4:$F$7,2,FALSE)</f>
-        <v>980.66</v>
+        <v>1</v>
       </c>
       <c r="AL45" s="39">
         <f>VLOOKUP(AA45,units!$E$4:$F$7,2,FALSE)</f>
@@ -12390,7 +12629,7 @@
         <v>0</v>
       </c>
       <c r="AT45" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU45" s="18">
         <v>0</v>
@@ -12408,7 +12647,7 @@
         <v>0</v>
       </c>
       <c r="AZ45" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA45" s="18">
         <v>0</v>
@@ -12417,43 +12656,43 @@
         <v>0</v>
       </c>
       <c r="BC45" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD45" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE45" s="21">
         <v>1</v>
       </c>
-      <c r="BF45" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="BG45" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="BH45" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="BI45" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="BJ45" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="BK45" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="BL45" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="BM45" s="10" t="s">
-        <v>132</v>
+      <c r="BF45" s="6">
+        <v>5</v>
+      </c>
+      <c r="BG45" s="6">
+        <v>9</v>
+      </c>
+      <c r="BH45" s="6">
+        <v>0</v>
+      </c>
+      <c r="BI45" s="6">
+        <v>300</v>
+      </c>
+      <c r="BJ45" s="10">
+        <v>5</v>
+      </c>
+      <c r="BK45" s="10">
+        <v>9</v>
+      </c>
+      <c r="BL45" s="10">
+        <v>0</v>
+      </c>
+      <c r="BM45" s="10">
+        <v>300</v>
       </c>
       <c r="BN45" s="14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BO45" s="14">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BP45" s="14">
         <v>0</v>
@@ -12462,26 +12701,26 @@
         <v>200</v>
       </c>
       <c r="BR45" s="25" t="s">
-        <v>135</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:70" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
-        <v>223</v>
+        <v>133</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>224</v>
+        <v>134</v>
       </c>
       <c r="C46" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>edit CB11</v>
+        <v>edit CB10</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>225</v>
+        <v>188</v>
       </c>
       <c r="E46" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>edit GMMValidation_CB11</v>
+        <v>edit GMMValidation_CB10</v>
       </c>
       <c r="F46" s="17" t="s">
         <v>213</v>
@@ -12687,26 +12926,26 @@
         <v>200</v>
       </c>
       <c r="BR46" s="25" t="s">
-        <v>226</v>
+        <v>135</v>
       </c>
     </row>
     <row r="47" spans="1:70" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
-        <v>38</v>
+        <v>223</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>115</v>
+        <v>224</v>
       </c>
       <c r="C47" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>edit CB19</v>
+        <v>edit CB11</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>189</v>
+        <v>225</v>
       </c>
       <c r="E47" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>edit GMMValidation_CB19</v>
+        <v>edit GMMValidation_CB11</v>
       </c>
       <c r="F47" s="17" t="s">
         <v>213</v>
@@ -12721,7 +12960,7 @@
         <v>43</v>
       </c>
       <c r="J47" s="23">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="K47" s="35">
         <v>0</v>
@@ -12739,7 +12978,7 @@
         <v>1</v>
       </c>
       <c r="P47" s="35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47" s="35">
         <v>0</v>
@@ -12769,10 +13008,10 @@
         <v>260</v>
       </c>
       <c r="Z47" s="37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AA47" s="37" t="s">
-        <v>118</v>
+        <v>260</v>
       </c>
       <c r="AB47" s="37" t="s">
         <v>260</v>
@@ -12807,11 +13046,11 @@
       </c>
       <c r="AK47" s="39">
         <f>VLOOKUP(Z47,units!$E$4:$F$7,2,FALSE)</f>
-        <v>100</v>
+        <v>980.66</v>
       </c>
       <c r="AL47" s="39">
         <f>VLOOKUP(AA47,units!$E$4:$F$7,2,FALSE)</f>
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="AM47" s="39">
         <f>VLOOKUP(AB47,units!$E$4:$F$7,2,FALSE)</f>
@@ -12849,13 +13088,13 @@
         <v>0</v>
       </c>
       <c r="AW47" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX47" s="18">
         <v>0</v>
       </c>
       <c r="AY47" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ47" s="18">
         <v>1</v>
@@ -12864,7 +13103,7 @@
         <v>0</v>
       </c>
       <c r="BB47" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC47" s="21">
         <v>0</v>
@@ -12900,7 +13139,7 @@
         <v>132</v>
       </c>
       <c r="BN47" s="14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BO47" s="14">
         <v>8.5</v>
@@ -12909,29 +13148,29 @@
         <v>0</v>
       </c>
       <c r="BQ47" s="14">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="BR47" s="25" t="s">
-        <v>45</v>
+        <v>226</v>
       </c>
     </row>
     <row r="48" spans="1:70" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C48" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>edit KM06</v>
+        <v>edit CB19</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E48" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>edit GMMValidation_KM06</v>
+        <v>edit GMMValidation_CB19</v>
       </c>
       <c r="F48" s="17" t="s">
         <v>213</v>
@@ -12940,13 +13179,13 @@
         <v>40</v>
       </c>
       <c r="H48" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I48" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J48" s="23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K48" s="35">
         <v>0</v>
@@ -12964,7 +13203,7 @@
         <v>1</v>
       </c>
       <c r="P48" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48" s="35">
         <v>0</v>
@@ -12997,7 +13236,7 @@
         <v>118</v>
       </c>
       <c r="AA48" s="37" t="s">
-        <v>260</v>
+        <v>118</v>
       </c>
       <c r="AB48" s="37" t="s">
         <v>260</v>
@@ -13036,7 +13275,7 @@
       </c>
       <c r="AL48" s="39">
         <f>VLOOKUP(AA48,units!$E$4:$F$7,2,FALSE)</f>
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="AM48" s="39">
         <f>VLOOKUP(AB48,units!$E$4:$F$7,2,FALSE)</f>
@@ -13065,7 +13304,7 @@
         <v>0</v>
       </c>
       <c r="AT48" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU48" s="18">
         <v>0</v>
@@ -13074,22 +13313,22 @@
         <v>0</v>
       </c>
       <c r="AW48" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX48" s="18">
         <v>0</v>
       </c>
       <c r="AY48" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ48" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA48" s="18">
         <v>0</v>
       </c>
       <c r="BB48" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC48" s="21">
         <v>0</v>
@@ -13125,619 +13364,939 @@
         <v>132</v>
       </c>
       <c r="BN48" s="14">
+        <v>3</v>
+      </c>
+      <c r="BO48" s="14">
+        <v>8.5</v>
+      </c>
+      <c r="BP48" s="14">
+        <v>0</v>
+      </c>
+      <c r="BQ48" s="14">
+        <v>300</v>
+      </c>
+      <c r="BR48" s="25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:70" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C49" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>edit KM06</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="E49" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>edit GMMValidation_KM06</v>
+      </c>
+      <c r="F49" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="G49" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="H49" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="I49" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="J49" s="23">
+        <v>0</v>
+      </c>
+      <c r="K49" s="35">
+        <v>0</v>
+      </c>
+      <c r="L49" s="35">
+        <v>0</v>
+      </c>
+      <c r="M49" s="35">
+        <v>0</v>
+      </c>
+      <c r="N49" s="35">
+        <v>0</v>
+      </c>
+      <c r="O49" s="35">
+        <v>1</v>
+      </c>
+      <c r="P49" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="35">
+        <v>0</v>
+      </c>
+      <c r="R49" s="35">
+        <v>0</v>
+      </c>
+      <c r="S49" s="35">
+        <v>0</v>
+      </c>
+      <c r="T49" s="35">
+        <v>0</v>
+      </c>
+      <c r="U49" s="35">
+        <v>0</v>
+      </c>
+      <c r="V49" s="37" t="s">
+        <v>260</v>
+      </c>
+      <c r="W49" s="37" t="s">
+        <v>260</v>
+      </c>
+      <c r="X49" s="37" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y49" s="37" t="s">
+        <v>260</v>
+      </c>
+      <c r="Z49" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA49" s="37" t="s">
+        <v>260</v>
+      </c>
+      <c r="AB49" s="37" t="s">
+        <v>260</v>
+      </c>
+      <c r="AC49" s="37" t="s">
+        <v>260</v>
+      </c>
+      <c r="AD49" s="37" t="s">
+        <v>260</v>
+      </c>
+      <c r="AE49" s="37" t="s">
+        <v>260</v>
+      </c>
+      <c r="AF49" s="37" t="s">
+        <v>260</v>
+      </c>
+      <c r="AG49" s="39">
+        <f>VLOOKUP(V49,units!$B$4:$C$7,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AH49" s="39">
+        <f>VLOOKUP(W49,units!$E$4:$F$7,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AI49" s="39">
+        <f>VLOOKUP(X49,units!$H$4:$I$7,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AJ49" s="39">
+        <f>VLOOKUP(Y49,units!$K$4:$L$7,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AK49" s="39">
+        <f>VLOOKUP(Z49,units!$E$4:$F$7,2,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="AL49" s="39">
+        <f>VLOOKUP(AA49,units!$E$4:$F$7,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AM49" s="39">
+        <f>VLOOKUP(AB49,units!$E$4:$F$7,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AN49" s="39">
+        <f>VLOOKUP(AC49,units!$B$4:$C$7,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AO49" s="39">
+        <f>VLOOKUP(AD49,units!$E$4:$F$7,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AP49" s="39">
+        <f>VLOOKUP(AE49,units!$H$4:$I$7,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AQ49" s="39">
+        <f>VLOOKUP(AF49,units!$N$4:$O$7,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AR49" s="18">
+        <v>1</v>
+      </c>
+      <c r="AS49" s="18">
+        <v>0</v>
+      </c>
+      <c r="AT49" s="18">
+        <v>0</v>
+      </c>
+      <c r="AU49" s="18">
+        <v>0</v>
+      </c>
+      <c r="AV49" s="18">
+        <v>0</v>
+      </c>
+      <c r="AW49" s="18">
+        <v>0</v>
+      </c>
+      <c r="AX49" s="18">
+        <v>0</v>
+      </c>
+      <c r="AY49" s="18">
+        <v>0</v>
+      </c>
+      <c r="AZ49" s="18">
+        <v>0</v>
+      </c>
+      <c r="BA49" s="18">
+        <v>0</v>
+      </c>
+      <c r="BB49" s="18">
+        <v>0</v>
+      </c>
+      <c r="BC49" s="21">
+        <v>0</v>
+      </c>
+      <c r="BD49" s="21">
+        <v>0</v>
+      </c>
+      <c r="BE49" s="21">
+        <v>1</v>
+      </c>
+      <c r="BF49" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="BG49" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="BH49" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="BI49" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="BJ49" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="BK49" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="BL49" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="BM49" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="BN49" s="14">
         <v>4.7</v>
       </c>
-      <c r="BO48" s="14">
+      <c r="BO49" s="14">
         <v>7.4</v>
       </c>
-      <c r="BP48" s="14">
-        <v>0</v>
-      </c>
-      <c r="BQ48" s="14">
+      <c r="BP49" s="14">
+        <v>0</v>
+      </c>
+      <c r="BQ49" s="14">
         <v>100</v>
       </c>
-      <c r="BR48" s="25" t="s">
+      <c r="BR49" s="25" t="s">
         <v>81</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A38:B39 A11:B36 A8:A10 A3:B7 C3:C39 AR38:BB39 AR22:BB35 AR2:BB20 BR47:BR48 K49:AF1048576 BR2:BR8 BR37:BR39 K22:U39 D11:D39 D3:D7 AR47:BB48 A2:I2 F3:I7 F11:I39 AR49:BR1048576 BC41:BQ48 K41:U48 BR41:BR44 AR41:BB45 A41:I1048576 E3:E39 G8:I10 S2:U20 K2:Q21 BC2:BQ39 BR11:BR35">
-    <cfRule type="cellIs" dxfId="127" priority="139" operator="equal">
+  <conditionalFormatting sqref="A39:B40 A11:B14 A8:A10 A3:B7 C3:C14 AR39:BB40 AR23:BB36 BR48:BR49 K50:AF1048576 BR2:BR8 BR38:BR40 K23:U40 D11:D14 D3:D7 AR48:BB49 A2:I2 F3:I7 F11:I14 AR50:BR1048576 BC42:BQ49 K42:U49 BR42:BR45 AR42:BB46 A42:I1048576 E3:E14 G8:I10 S2:U14 K2:Q14 AR2:BQ14 BR11:BR14 BR16:BR36 BC16:BQ40 K16:Q22 S16:U21 AR16:BB21 C16:I40 A16:B37">
+    <cfRule type="cellIs" dxfId="165" priority="177" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BR45">
-    <cfRule type="cellIs" dxfId="126" priority="137" operator="equal">
+  <conditionalFormatting sqref="BR46">
+    <cfRule type="cellIs" dxfId="164" priority="175" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2:R20">
-    <cfRule type="cellIs" dxfId="125" priority="136" operator="equal">
+  <conditionalFormatting sqref="R2:R14 R16:R21">
+    <cfRule type="cellIs" dxfId="163" priority="174" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S21:U21 AR21:BB21">
-    <cfRule type="cellIs" dxfId="124" priority="135" operator="equal">
+  <conditionalFormatting sqref="S22:U22 AR22:BB22">
+    <cfRule type="cellIs" dxfId="162" priority="173" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R21">
-    <cfRule type="cellIs" dxfId="123" priority="134" operator="equal">
+  <conditionalFormatting sqref="R22">
+    <cfRule type="cellIs" dxfId="161" priority="172" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A37:B37 AR37:BB37">
-    <cfRule type="cellIs" dxfId="122" priority="132" operator="equal">
+  <conditionalFormatting sqref="A38:B38 AR38:BB38">
+    <cfRule type="cellIs" dxfId="160" priority="170" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR36:BB36">
-    <cfRule type="cellIs" dxfId="121" priority="130" operator="equal">
+  <conditionalFormatting sqref="AR37:BB37">
+    <cfRule type="cellIs" dxfId="159" priority="168" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BR36">
-    <cfRule type="cellIs" dxfId="120" priority="128" operator="equal">
+  <conditionalFormatting sqref="BR37">
+    <cfRule type="cellIs" dxfId="158" priority="166" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K47:U48 K41:U45 K2:U39">
-    <cfRule type="cellIs" dxfId="119" priority="127" operator="equal">
+  <conditionalFormatting sqref="K48:U49 K42:U46 K2:U14 K16:U40">
+    <cfRule type="cellIs" dxfId="157" priority="165" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR39:BB39">
-    <cfRule type="cellIs" dxfId="118" priority="126" operator="equal">
+  <conditionalFormatting sqref="AR40:BB40">
+    <cfRule type="cellIs" dxfId="156" priority="164" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K39:U39">
-    <cfRule type="cellIs" dxfId="117" priority="124" operator="equal">
+  <conditionalFormatting sqref="K40:U40">
+    <cfRule type="cellIs" dxfId="155" priority="162" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BR39">
-    <cfRule type="cellIs" dxfId="116" priority="123" operator="equal">
+  <conditionalFormatting sqref="BR40">
+    <cfRule type="cellIs" dxfId="154" priority="161" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR46:BB46">
-    <cfRule type="cellIs" dxfId="115" priority="122" operator="equal">
+  <conditionalFormatting sqref="AR47:BB47">
+    <cfRule type="cellIs" dxfId="153" priority="160" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K46:U46">
-    <cfRule type="cellIs" dxfId="114" priority="119" operator="equal">
+  <conditionalFormatting sqref="K47:U47">
+    <cfRule type="cellIs" dxfId="152" priority="157" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BR46">
-    <cfRule type="cellIs" dxfId="113" priority="118" operator="equal">
+  <conditionalFormatting sqref="BR47">
+    <cfRule type="cellIs" dxfId="151" priority="156" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B10 D8:D10 F8:F10">
-    <cfRule type="cellIs" dxfId="112" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="155" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W2:AB2 V22:AF35 V47:AF48 V38:AF39 V41:AF45 V3:AB20 AD2:AF20">
+  <conditionalFormatting sqref="W2:AB2 V23:AF36 V48:AF49 V39:AF40 V42:AF46 V3:AB14 AD2:AF14 AD16:AF21 V16:AB21">
+    <cfRule type="cellIs" dxfId="149" priority="153" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC2:AC14 AC16:AC21">
+    <cfRule type="cellIs" dxfId="148" priority="152" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD22:AF22 V22:AB22">
+    <cfRule type="cellIs" dxfId="147" priority="151" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC22">
+    <cfRule type="cellIs" dxfId="146" priority="150" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V38:AF38">
+    <cfRule type="cellIs" dxfId="145" priority="149" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V37:AF37">
+    <cfRule type="cellIs" dxfId="144" priority="148" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W2:AF2 V2:V14 V48:AF49 V42:V49 V42:AF46 V3:AF14 V16:AF40">
+    <cfRule type="cellIs" dxfId="143" priority="147" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V40:AF40">
+    <cfRule type="cellIs" dxfId="142" priority="146" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V40:AF40">
+    <cfRule type="cellIs" dxfId="141" priority="145" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V47:AF47">
+    <cfRule type="cellIs" dxfId="140" priority="144" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V47:AF47">
+    <cfRule type="cellIs" dxfId="139" priority="143" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W37">
+    <cfRule type="cellIs" dxfId="138" priority="113" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V42:AF49 V2:AF14 V16:AF40">
+    <cfRule type="cellIs" dxfId="137" priority="141" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V42:AF49 V2:AF14 V16:AF40">
+    <cfRule type="cellIs" dxfId="136" priority="140" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V2:V14 V42:V49 V16:V40">
+    <cfRule type="cellIs" dxfId="135" priority="139" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC3:AC4">
+    <cfRule type="cellIs" dxfId="134" priority="138" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC3:AC4">
+    <cfRule type="cellIs" dxfId="133" priority="137" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC5:AC14 AC16">
+    <cfRule type="cellIs" dxfId="132" priority="136" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC5:AC14 AC16">
+    <cfRule type="cellIs" dxfId="131" priority="135" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC20:AC21 AC17:AC18">
+    <cfRule type="cellIs" dxfId="130" priority="134" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC23 AC20:AC21 AC17:AC18">
+    <cfRule type="cellIs" dxfId="129" priority="133" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC24">
+    <cfRule type="cellIs" dxfId="128" priority="132" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC26">
+    <cfRule type="cellIs" dxfId="127" priority="131" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC27">
+    <cfRule type="cellIs" dxfId="126" priority="130" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC28">
+    <cfRule type="cellIs" dxfId="125" priority="129" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC29">
+    <cfRule type="cellIs" dxfId="124" priority="128" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC31">
+    <cfRule type="cellIs" dxfId="123" priority="127" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC32">
+    <cfRule type="cellIs" dxfId="122" priority="126" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC33">
+    <cfRule type="cellIs" dxfId="121" priority="125" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC34">
+    <cfRule type="cellIs" dxfId="120" priority="124" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC35">
+    <cfRule type="cellIs" dxfId="119" priority="123" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V37">
+    <cfRule type="cellIs" dxfId="118" priority="122" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V38">
+    <cfRule type="cellIs" dxfId="117" priority="121" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC36">
+    <cfRule type="cellIs" dxfId="116" priority="120" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC37">
+    <cfRule type="cellIs" dxfId="115" priority="119" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC37">
+    <cfRule type="cellIs" dxfId="114" priority="118" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC38">
+    <cfRule type="cellIs" dxfId="113" priority="117" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC38">
+    <cfRule type="cellIs" dxfId="112" priority="116" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC39">
     <cfRule type="cellIs" dxfId="111" priority="115" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC2:AC20">
+  <conditionalFormatting sqref="AC40">
     <cfRule type="cellIs" dxfId="110" priority="114" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD21:AF21 V21:AB21">
-    <cfRule type="cellIs" dxfId="109" priority="113" operator="equal">
+  <conditionalFormatting sqref="Z47">
+    <cfRule type="cellIs" dxfId="109" priority="112" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC21">
-    <cfRule type="cellIs" dxfId="108" priority="112" operator="equal">
+  <conditionalFormatting sqref="Z47">
+    <cfRule type="cellIs" dxfId="108" priority="111" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG50:AQ1048576">
+    <cfRule type="cellIs" dxfId="107" priority="110" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V37:AF37">
-    <cfRule type="cellIs" dxfId="107" priority="111" operator="equal">
+  <conditionalFormatting sqref="AG23:AQ36 AG48:AQ49 AG39:AQ40 AH2:AM14 AG42:AQ46 AO42:AQ49 AH42:AM49 AG3:AM14 AO2:AQ14 AO16:AQ40 AH16:AM40 AG16:AM21">
+    <cfRule type="cellIs" dxfId="106" priority="109" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V36:AF36">
-    <cfRule type="cellIs" dxfId="106" priority="110" operator="equal">
+  <conditionalFormatting sqref="AN42:AN49 AN2:AN14 AN16:AN40">
+    <cfRule type="cellIs" dxfId="105" priority="108" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W2:AF2 V2:V39 V47:AF48 V41:V48 V41:AF45 V3:AF39">
-    <cfRule type="cellIs" dxfId="105" priority="109" operator="equal">
+  <conditionalFormatting sqref="AO22:AQ22 AG22:AM22">
+    <cfRule type="cellIs" dxfId="104" priority="107" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN22">
+    <cfRule type="cellIs" dxfId="103" priority="106" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG38:AQ38">
+    <cfRule type="cellIs" dxfId="102" priority="105" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG37:AQ37">
+    <cfRule type="cellIs" dxfId="101" priority="104" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG42:AQ49 AG2:AQ14 AG16:AQ40">
+    <cfRule type="cellIs" dxfId="100" priority="103" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V39:AF39">
-    <cfRule type="cellIs" dxfId="104" priority="108" operator="equal">
+  <conditionalFormatting sqref="AG40:AQ40">
+    <cfRule type="cellIs" dxfId="99" priority="102" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V39:AF39">
-    <cfRule type="cellIs" dxfId="103" priority="107" operator="equal">
+  <conditionalFormatting sqref="AG40:AQ40">
+    <cfRule type="cellIs" dxfId="98" priority="101" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V46:AF46">
-    <cfRule type="cellIs" dxfId="102" priority="106" operator="equal">
+  <conditionalFormatting sqref="AG47:AQ47">
+    <cfRule type="cellIs" dxfId="97" priority="100" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V46:AF46">
-    <cfRule type="cellIs" dxfId="101" priority="105" operator="equal">
+  <conditionalFormatting sqref="AG47:AQ47">
+    <cfRule type="cellIs" dxfId="96" priority="99" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W36">
-    <cfRule type="cellIs" dxfId="100" priority="75" operator="equal">
+  <conditionalFormatting sqref="AH37">
+    <cfRule type="cellIs" dxfId="95" priority="70" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V41:AF48 V2:AF39">
-    <cfRule type="cellIs" dxfId="99" priority="103" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V41:AF48 V2:AF39">
-    <cfRule type="cellIs" dxfId="98" priority="102" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V2:V39 V41:V48">
-    <cfRule type="cellIs" dxfId="97" priority="101" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC3:AC4">
-    <cfRule type="cellIs" dxfId="96" priority="100" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC3:AC4">
-    <cfRule type="cellIs" dxfId="95" priority="99" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC5:AC15">
+  <conditionalFormatting sqref="AG42:AQ49 AG2:AQ14 AG16:AQ40">
     <cfRule type="cellIs" dxfId="94" priority="98" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC5:AC15">
+  <conditionalFormatting sqref="AG42:AQ49 AG2:AQ14 AG16:AQ40">
     <cfRule type="cellIs" dxfId="93" priority="97" operator="equal">
-      <formula>"nan"</formula>
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC19:AC20 AC16:AC17">
+  <conditionalFormatting sqref="AG42:AG49 AG2:AG14 AG16:AG40">
     <cfRule type="cellIs" dxfId="92" priority="96" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC22 AC19:AC20 AC16:AC17">
+  <conditionalFormatting sqref="AN3:AN4">
     <cfRule type="cellIs" dxfId="91" priority="95" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC23">
+  <conditionalFormatting sqref="AN3:AN4">
     <cfRule type="cellIs" dxfId="90" priority="94" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC25">
+  <conditionalFormatting sqref="AN5:AN14 AN16">
     <cfRule type="cellIs" dxfId="89" priority="93" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC26">
+  <conditionalFormatting sqref="AN5:AN14 AN16">
     <cfRule type="cellIs" dxfId="88" priority="92" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC27">
+  <conditionalFormatting sqref="AN20:AN21 AN17:AN18">
     <cfRule type="cellIs" dxfId="87" priority="91" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC28">
+  <conditionalFormatting sqref="AN23 AN20:AN21 AN17:AN18">
     <cfRule type="cellIs" dxfId="86" priority="90" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC30">
+  <conditionalFormatting sqref="AN24">
     <cfRule type="cellIs" dxfId="85" priority="89" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC31">
+  <conditionalFormatting sqref="AN26">
     <cfRule type="cellIs" dxfId="84" priority="88" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC32">
+  <conditionalFormatting sqref="AN27">
     <cfRule type="cellIs" dxfId="83" priority="87" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC33">
+  <conditionalFormatting sqref="AN28">
     <cfRule type="cellIs" dxfId="82" priority="86" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC34">
+  <conditionalFormatting sqref="AN29">
     <cfRule type="cellIs" dxfId="81" priority="85" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V36">
+  <conditionalFormatting sqref="AN31">
     <cfRule type="cellIs" dxfId="80" priority="84" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V37">
+  <conditionalFormatting sqref="AN32">
     <cfRule type="cellIs" dxfId="79" priority="83" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC35">
+  <conditionalFormatting sqref="AN33">
     <cfRule type="cellIs" dxfId="78" priority="82" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC36">
+  <conditionalFormatting sqref="AN34">
     <cfRule type="cellIs" dxfId="77" priority="81" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC36">
+  <conditionalFormatting sqref="AN35">
     <cfRule type="cellIs" dxfId="76" priority="80" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC37">
+  <conditionalFormatting sqref="AG37">
     <cfRule type="cellIs" dxfId="75" priority="79" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC37">
+  <conditionalFormatting sqref="AG38">
     <cfRule type="cellIs" dxfId="74" priority="78" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC38">
+  <conditionalFormatting sqref="AN36">
     <cfRule type="cellIs" dxfId="73" priority="77" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC39">
+  <conditionalFormatting sqref="AN37">
     <cfRule type="cellIs" dxfId="72" priority="76" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z46">
-    <cfRule type="cellIs" dxfId="71" priority="74" operator="equal">
+  <conditionalFormatting sqref="AN37">
+    <cfRule type="cellIs" dxfId="71" priority="75" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z46">
-    <cfRule type="cellIs" dxfId="70" priority="73" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG49:AQ1048576">
-    <cfRule type="cellIs" dxfId="69" priority="72" operator="equal">
+  <conditionalFormatting sqref="AN38">
+    <cfRule type="cellIs" dxfId="70" priority="74" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG22:AQ35 AG47:AQ48 AG38:AQ39 AH2:AM39 AG41:AQ45 AO41:AQ48 AH41:AM48 AG3:AM20 AO2:AQ39">
-    <cfRule type="cellIs" dxfId="68" priority="71" operator="equal">
+  <conditionalFormatting sqref="AN38">
+    <cfRule type="cellIs" dxfId="69" priority="73" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN41:AN48 AN2:AN39">
-    <cfRule type="cellIs" dxfId="67" priority="70" operator="equal">
+  <conditionalFormatting sqref="AN39">
+    <cfRule type="cellIs" dxfId="68" priority="72" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO21:AQ21 AG21:AM21">
+  <conditionalFormatting sqref="AN40">
+    <cfRule type="cellIs" dxfId="67" priority="71" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK47">
     <cfRule type="cellIs" dxfId="66" priority="69" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN21">
+  <conditionalFormatting sqref="AK47">
     <cfRule type="cellIs" dxfId="65" priority="68" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V41">
+    <cfRule type="cellIs" dxfId="64" priority="47" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG37:AQ37">
-    <cfRule type="cellIs" dxfId="64" priority="67" operator="equal">
+  <conditionalFormatting sqref="AG41:AQ41">
+    <cfRule type="cellIs" dxfId="63" priority="46" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG36:AQ36">
-    <cfRule type="cellIs" dxfId="63" priority="66" operator="equal">
+  <conditionalFormatting sqref="AG41">
+    <cfRule type="cellIs" dxfId="62" priority="41" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG41:AQ48 AG2:AQ39">
-    <cfRule type="cellIs" dxfId="62" priority="65" operator="equal">
+  <conditionalFormatting sqref="K41:U41 AR41:BR41 A41:I41">
+    <cfRule type="cellIs" dxfId="61" priority="53" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K41:U41">
+    <cfRule type="cellIs" dxfId="60" priority="52" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG39:AQ39">
-    <cfRule type="cellIs" dxfId="61" priority="64" operator="equal">
+  <conditionalFormatting sqref="V41:AF41">
+    <cfRule type="cellIs" dxfId="59" priority="51" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG39:AQ39">
-    <cfRule type="cellIs" dxfId="60" priority="63" operator="equal">
+  <conditionalFormatting sqref="V41:AF41">
+    <cfRule type="cellIs" dxfId="58" priority="50" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG46:AQ46">
-    <cfRule type="cellIs" dxfId="59" priority="62" operator="equal">
+  <conditionalFormatting sqref="V41:AF41">
+    <cfRule type="cellIs" dxfId="57" priority="49" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG46:AQ46">
-    <cfRule type="cellIs" dxfId="58" priority="61" operator="equal">
+  <conditionalFormatting sqref="V41:AF41">
+    <cfRule type="cellIs" dxfId="56" priority="48" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH36">
-    <cfRule type="cellIs" dxfId="57" priority="32" operator="equal">
+  <conditionalFormatting sqref="AN41">
+    <cfRule type="cellIs" dxfId="55" priority="45" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG41:AQ48 AG2:AQ39">
-    <cfRule type="cellIs" dxfId="56" priority="60" operator="equal">
+  <conditionalFormatting sqref="AG41:AQ41">
+    <cfRule type="cellIs" dxfId="54" priority="44" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG41:AQ41">
+    <cfRule type="cellIs" dxfId="53" priority="43" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG41:AQ48 AG2:AQ39">
-    <cfRule type="cellIs" dxfId="55" priority="59" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG41:AG48 AG2:AG39">
-    <cfRule type="cellIs" dxfId="54" priority="58" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN3:AN4">
-    <cfRule type="cellIs" dxfId="53" priority="57" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN3:AN4">
-    <cfRule type="cellIs" dxfId="52" priority="56" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN5:AN15">
-    <cfRule type="cellIs" dxfId="51" priority="55" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN5:AN15">
-    <cfRule type="cellIs" dxfId="50" priority="54" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN19:AN20 AN16:AN17">
-    <cfRule type="cellIs" dxfId="49" priority="53" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN22 AN19:AN20 AN16:AN17">
-    <cfRule type="cellIs" dxfId="48" priority="52" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN23">
-    <cfRule type="cellIs" dxfId="47" priority="51" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN25">
-    <cfRule type="cellIs" dxfId="46" priority="50" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN26">
-    <cfRule type="cellIs" dxfId="45" priority="49" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN27">
-    <cfRule type="cellIs" dxfId="44" priority="48" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN28">
-    <cfRule type="cellIs" dxfId="43" priority="47" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN30">
-    <cfRule type="cellIs" dxfId="42" priority="46" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN31">
-    <cfRule type="cellIs" dxfId="41" priority="45" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN32">
-    <cfRule type="cellIs" dxfId="40" priority="44" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN33">
-    <cfRule type="cellIs" dxfId="39" priority="43" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN34">
-    <cfRule type="cellIs" dxfId="38" priority="42" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG36">
-    <cfRule type="cellIs" dxfId="37" priority="41" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG37">
-    <cfRule type="cellIs" dxfId="36" priority="40" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN35">
-    <cfRule type="cellIs" dxfId="35" priority="39" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN36">
-    <cfRule type="cellIs" dxfId="34" priority="38" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN36">
-    <cfRule type="cellIs" dxfId="33" priority="37" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN37">
-    <cfRule type="cellIs" dxfId="32" priority="36" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN37">
-    <cfRule type="cellIs" dxfId="31" priority="35" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN38">
-    <cfRule type="cellIs" dxfId="30" priority="34" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN39">
-    <cfRule type="cellIs" dxfId="29" priority="33" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK46">
-    <cfRule type="cellIs" dxfId="28" priority="31" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK46">
-    <cfRule type="cellIs" dxfId="27" priority="30" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V40">
-    <cfRule type="cellIs" dxfId="26" priority="9" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG40:AQ40">
-    <cfRule type="cellIs" dxfId="25" priority="8" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG40">
-    <cfRule type="cellIs" dxfId="24" priority="3" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K40:U40 AR40:BR40 A40:I40">
-    <cfRule type="cellIs" dxfId="23" priority="15" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K40:U40">
-    <cfRule type="cellIs" dxfId="22" priority="14" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V40:AF40">
-    <cfRule type="cellIs" dxfId="21" priority="13" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V40:AF40">
-    <cfRule type="cellIs" dxfId="20" priority="12" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V40:AF40">
-    <cfRule type="cellIs" dxfId="19" priority="11" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V40:AF40">
-    <cfRule type="cellIs" dxfId="18" priority="10" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN40">
-    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG40:AQ40">
-    <cfRule type="cellIs" dxfId="16" priority="6" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG40:AQ40">
-    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG40:AQ40">
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+  <conditionalFormatting sqref="AG41:AQ41">
+    <cfRule type="cellIs" dxfId="52" priority="42" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BR9">
+    <cfRule type="cellIs" dxfId="51" priority="40" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BR10">
+    <cfRule type="cellIs" dxfId="50" priority="39" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:I15 S15:U15 K15:Q15 AR15:BR15">
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R15">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K15:U15">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V15:AB15 AD15:AF15">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC15">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V15:AF15">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V15:AF15">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V15:AF15">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V15">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC15">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC15">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG15:AM15 AO15:AQ15">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN15">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG15:AQ15">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG15:AQ15">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG15:AQ15">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG15">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN15">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BR10">
+  <conditionalFormatting sqref="AN15">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G48">
+  <dataValidations disablePrompts="1" count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G49">
       <formula1>"10,natural"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:I48">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:I49">
       <formula1>"yes,no"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:AF48">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:AF49">
       <formula1>" g,m/s2,cm/s2,m/s,cm/s,m,cm,g*sec,-"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="BR45" r:id="rId1"/>
-    <hyperlink ref="BR39" r:id="rId2"/>
-    <hyperlink ref="BR46" r:id="rId3"/>
+    <hyperlink ref="BR46" r:id="rId1"/>
+    <hyperlink ref="BR40" r:id="rId2"/>
+    <hyperlink ref="BR47" r:id="rId3"/>
     <hyperlink ref="BR8" r:id="rId4"/>
-    <hyperlink ref="BR40" r:id="rId5"/>
+    <hyperlink ref="BR41" r:id="rId5"/>
     <hyperlink ref="BR9" r:id="rId6"/>
     <hyperlink ref="BR10" r:id="rId7"/>
   </hyperlinks>
@@ -13749,7 +14308,7 @@
     <brk id="47" max="1048575" man="1"/>
   </colBreaks>
   <ignoredErrors>
-    <ignoredError sqref="AN41:AN48 AN11:AN39 AN2:AN8" formula="1"/>
+    <ignoredError sqref="AN42:AN49 AN16:AN40 AN2:AN8 AN11:AN14" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -14427,32 +14986,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="AH2:AU2 J2:AF2 A2:H2">
-    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="8" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG2">
-    <cfRule type="cellIs" dxfId="12" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="7" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z2:AJ2">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH3:AU3 J3:AF3 A3:H3">
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="4" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG3">
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="3" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z3:AJ3">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14912,32 +15471,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:H3 J2:M3">
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="9" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH2:AU2 N2:AF2">
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="5" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG2">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="4" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z2:AJ2">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:AU3">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="2" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z3:AJ3">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/platform_realvalues/GMM_summary.xlsx
+++ b/platform_realvalues/GMM_summary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="regular" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="pce" sheetId="6" r:id="rId4"/>
     <sheet name="frn" sheetId="5" r:id="rId5"/>
     <sheet name="units" sheetId="7" r:id="rId6"/>
+    <sheet name="Hoja1" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">regular!$A$1:$BU$49</definedName>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1618" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1665" uniqueCount="367">
   <si>
     <t>log base</t>
   </si>
@@ -1038,6 +1039,129 @@
   </si>
   <si>
     <t>Site Class</t>
+  </si>
+  <si>
+    <t>Youngs1997 interface</t>
+  </si>
+  <si>
+    <t>AtkinsonBoore2003 interface General</t>
+  </si>
+  <si>
+    <t>Zhao2006 interface</t>
+  </si>
+  <si>
+    <t>Mcverry2006 normal 0</t>
+  </si>
+  <si>
+    <t>BCHydro2012 interface forearc lower</t>
+  </si>
+  <si>
+    <t>BCHydro2018 interface</t>
+  </si>
+  <si>
+    <t>Kuehn2020 interface South_America_S 0 0 0.55 2 100</t>
+  </si>
+  <si>
+    <t>Arteta2018 forearc</t>
+  </si>
+  <si>
+    <t>Idini2016 interface sII</t>
+  </si>
+  <si>
+    <t>MontalvaBastias2017 interface forearc</t>
+  </si>
+  <si>
+    <t>MontalvaBastias2017HQ interface forearc</t>
+  </si>
+  <si>
+    <t>Montalva2018 interface</t>
+  </si>
+  <si>
+    <t>SiberRisk2019 interface</t>
+  </si>
+  <si>
+    <t>Garcia2005 horizontal</t>
+  </si>
+  <si>
+    <t>Jaimes2015 cu</t>
+  </si>
+  <si>
+    <t>GarciaJaimes2017 vertical</t>
+  </si>
+  <si>
+    <t>Bernal2014 interface</t>
+  </si>
+  <si>
+    <t>Sadigh1997 strike-slip</t>
+  </si>
+  <si>
+    <t>I2008 strike-slip</t>
+  </si>
+  <si>
+    <t>CY2008 unk strike-slip mainshock measured</t>
+  </si>
+  <si>
+    <t>BA2008 strike-slip</t>
+  </si>
+  <si>
+    <t>CB2008 2 strike-slip average</t>
+  </si>
+  <si>
+    <t>AS2008 unk strike-slip mainshock measured</t>
+  </si>
+  <si>
+    <t>AS1997h rock reverse hangingwall arbitrary</t>
+  </si>
+  <si>
+    <t>I2014 strike-slip</t>
+  </si>
+  <si>
+    <t>CY2014 0.4 strike-slip measured global</t>
+  </si>
+  <si>
+    <t>CB2014 0.67 strike-slip include global</t>
+  </si>
+  <si>
+    <t>BSSA2014 2 strike-slip global</t>
+  </si>
+  <si>
+    <t>ASK2014 unk strike-slip mainshock  measured global</t>
+  </si>
+  <si>
+    <t>AkkarBoomer2007 stiff normal 5</t>
+  </si>
+  <si>
+    <t>AkkarBoomer2010 rock normal</t>
+  </si>
+  <si>
+    <t>Bindi2011 normal geoh</t>
+  </si>
+  <si>
+    <t>Cauzzi2015 2 strike-slip</t>
+  </si>
+  <si>
+    <t>DW12 B strike-slip</t>
+  </si>
+  <si>
+    <t>FG15 interface forearc linear</t>
+  </si>
+  <si>
+    <t>TBA03 B strike-slip</t>
+  </si>
+  <si>
+    <t>BU17 normal CAV</t>
+  </si>
+  <si>
+    <t>CB10 0.607 strike-slip</t>
+  </si>
+  <si>
+    <t>CB11 0.607 strike-slip CB08-NGA-PSV</t>
+  </si>
+  <si>
+    <t>CB19 0.607 strike-slip global</t>
+  </si>
+  <si>
+    <t>KM06 strike-slip</t>
   </si>
 </sst>
 </file>
@@ -2422,9 +2546,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BU49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="54" zoomScalePageLayoutView="52" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="54" zoomScalePageLayoutView="52" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13803,7 +13927,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BU49"/>
   <conditionalFormatting sqref="A39:B40 A11:B14 A8:A10 A3:B7 C3:C14 AU39:BE40 AU23:BE36 BU48:BU49 N50:AI1048576 BU2:BU8 BU38:BU40 N23:X40 D11:D14 D3:D7 AU48:BE49 F3:H7 F11:H14 AU50:BU1048576 BF42:BT49 N42:X49 BU42:BU45 AU42:BE46 A50:L1048576 E3:E14 G8:H10 V2:X14 N2:T14 AU2:BT14 BU11:BU14 BU16:BU36 BF16:BT40 N16:T22 V16:X21 AU16:BE21 C16:H40 A16:B37 A42:H49 A2:L2 I3:L49">
     <cfRule type="cellIs" dxfId="146" priority="177" operator="equal">
       <formula>"nan"</formula>
@@ -14479,7 +14602,7 @@
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="4">
+  <dataValidations disablePrompts="1" count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G49">
       <formula1>"10,natural"</formula1>
     </dataValidation>
@@ -14715,7 +14838,7 @@
   <dimension ref="A1:AW10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15236,8 +15359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU3"/>
   <sheetViews>
-    <sheetView topLeftCell="AP1" workbookViewId="0">
-      <selection activeCell="AW7" sqref="AW7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15921,4 +16044,257 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:B49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="47.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>366</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/platform_realvalues/GMM_summary.xlsx
+++ b/platform_realvalues/GMM_summary.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcandia\Documents\Dropbox\SeismicHazard - BETA\platform_realvalues\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcandia\Documents\Dropbox\SeismicHazard-BETA\platform_realvalues\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="5"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="regular" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1699" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1757" uniqueCount="334">
   <si>
     <t>log base</t>
   </si>
@@ -776,15 +776,6 @@
     <t>Where ptr1 ptr2 ptr3 … are pointers to regular models declared in the gmm library</t>
   </si>
   <si>
-    <t>Macedo et al. 2019</t>
-  </si>
-  <si>
-    <t>Macedo2019</t>
-  </si>
-  <si>
-    <t>GMMValidation_Macedo2019</t>
-  </si>
-  <si>
     <t>GMMSyntax10_cond.m</t>
   </si>
   <si>
@@ -792,21 +783,6 @@
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>Macedo et al. 2020</t>
-  </si>
-  <si>
-    <t>Macedo2020</t>
-  </si>
-  <si>
-    <t>GMMValidation_Macedo2020</t>
-  </si>
-  <si>
-    <t>[lny,sigma,tau,phi] = Macedo2019(T,M,Rrup,mechanism,region,Vs30,func,varargin)</t>
-  </si>
-  <si>
-    <t>[lny,sigma,tau,phi] = Macedo2020(To,M,Rrup,Vs30,func,varargin)</t>
   </si>
   <si>
     <t>Syntais</t>
@@ -1053,6 +1029,39 @@
   </si>
   <si>
     <t>https://doi.org/10.1007/s10518-013-9461-4</t>
+  </si>
+  <si>
+    <t>Macedo, Abrahamson, Bray 2019</t>
+  </si>
+  <si>
+    <t>Macedo, Abrahamson, Liu  2020</t>
+  </si>
+  <si>
+    <t>Macedo, Mao, Liu, Abrah. 2020</t>
+  </si>
+  <si>
+    <t>Macedo, Liu, 2021</t>
+  </si>
+  <si>
+    <t>MAB2019</t>
+  </si>
+  <si>
+    <t>MAL2020</t>
+  </si>
+  <si>
+    <t>MMLA2020</t>
+  </si>
+  <si>
+    <t>ML2021</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1785/0120190321</t>
+  </si>
+  <si>
+    <t>not published, but a good model</t>
+  </si>
+  <si>
+    <t>under review</t>
   </si>
 </sst>
 </file>
@@ -1318,7 +1327,237 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="287">
+  <dxfs count="327">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -3275,10 +3514,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BS53"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="54" zoomScalePageLayoutView="52" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="54" zoomScalePageLayoutView="52" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="BS41" sqref="BS41"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3289,7 +3528,8 @@
     <col min="5" max="5" width="34.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="38.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="2" customWidth="1"/>
-    <col min="8" max="9" width="11.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="2" customWidth="1"/>
     <col min="10" max="10" width="15.140625" style="2" customWidth="1"/>
     <col min="11" max="11" width="12.28515625" style="2" customWidth="1"/>
     <col min="12" max="33" width="8.140625" style="2" customWidth="1"/>
@@ -3323,13 +3563,13 @@
         <v>41</v>
       </c>
       <c r="I1" s="37" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="J1" s="37" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="K1" s="37" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="L1" s="37" t="s">
         <v>147</v>
@@ -3365,70 +3605,70 @@
         <v>198</v>
       </c>
       <c r="W1" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="X1" s="37" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y1" s="37" t="s">
+        <v>255</v>
+      </c>
+      <c r="Z1" s="37" t="s">
+        <v>256</v>
+      </c>
+      <c r="AA1" s="37" t="s">
+        <v>257</v>
+      </c>
+      <c r="AB1" s="37" t="s">
+        <v>258</v>
+      </c>
+      <c r="AC1" s="37" t="s">
+        <v>259</v>
+      </c>
+      <c r="AD1" s="37" t="s">
+        <v>260</v>
+      </c>
+      <c r="AE1" s="37" t="s">
         <v>261</v>
       </c>
-      <c r="X1" s="37" t="s">
+      <c r="AF1" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="Y1" s="37" t="s">
+      <c r="AG1" s="37" t="s">
         <v>263</v>
       </c>
-      <c r="Z1" s="37" t="s">
-        <v>264</v>
-      </c>
-      <c r="AA1" s="37" t="s">
+      <c r="AH1" s="37" t="s">
         <v>265</v>
       </c>
-      <c r="AB1" s="37" t="s">
+      <c r="AI1" s="37" t="s">
         <v>266</v>
       </c>
-      <c r="AC1" s="37" t="s">
+      <c r="AJ1" s="37" t="s">
         <v>267</v>
       </c>
-      <c r="AD1" s="37" t="s">
+      <c r="AK1" s="37" t="s">
+        <v>275</v>
+      </c>
+      <c r="AL1" s="37" t="s">
         <v>268</v>
       </c>
-      <c r="AE1" s="37" t="s">
+      <c r="AM1" s="37" t="s">
+        <v>274</v>
+      </c>
+      <c r="AN1" s="37" t="s">
+        <v>273</v>
+      </c>
+      <c r="AO1" s="37" t="s">
         <v>269</v>
       </c>
-      <c r="AF1" s="37" t="s">
+      <c r="AP1" s="37" t="s">
         <v>270</v>
       </c>
-      <c r="AG1" s="37" t="s">
+      <c r="AQ1" s="37" t="s">
         <v>271</v>
       </c>
-      <c r="AH1" s="37" t="s">
-        <v>273</v>
-      </c>
-      <c r="AI1" s="37" t="s">
-        <v>274</v>
-      </c>
-      <c r="AJ1" s="37" t="s">
-        <v>275</v>
-      </c>
-      <c r="AK1" s="37" t="s">
-        <v>283</v>
-      </c>
-      <c r="AL1" s="37" t="s">
-        <v>276</v>
-      </c>
-      <c r="AM1" s="37" t="s">
-        <v>282</v>
-      </c>
-      <c r="AN1" s="37" t="s">
-        <v>281</v>
-      </c>
-      <c r="AO1" s="37" t="s">
-        <v>277</v>
-      </c>
-      <c r="AP1" s="37" t="s">
-        <v>278</v>
-      </c>
-      <c r="AQ1" s="37" t="s">
-        <v>279</v>
-      </c>
       <c r="AR1" s="37" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="AS1" s="37" t="s">
         <v>121</v>
@@ -3582,34 +3822,34 @@
         <v>42</v>
       </c>
       <c r="X2" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Y2" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Z2" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AA2" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AB2" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AC2" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AD2" s="40" t="s">
         <v>42</v>
       </c>
       <c r="AE2" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AF2" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AG2" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AH2" s="40">
         <f>VLOOKUP(W2,units!$B$4:$C$7,2,FALSE)</f>
@@ -3807,34 +4047,34 @@
         <v>89</v>
       </c>
       <c r="X3" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Y3" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Z3" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AA3" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AB3" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AC3" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AD3" s="40" t="s">
         <v>89</v>
       </c>
       <c r="AE3" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AF3" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AG3" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AH3" s="40" t="str">
         <f>VLOOKUP(W3,units!$B$4:$C$7,2,FALSE)</f>
@@ -4032,34 +4272,34 @@
         <v>89</v>
       </c>
       <c r="X4" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Y4" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Z4" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AA4" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AB4" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AC4" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AD4" s="40" t="s">
         <v>89</v>
       </c>
       <c r="AE4" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AF4" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AG4" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AH4" s="40" t="str">
         <f>VLOOKUP(W4,units!$B$4:$C$7,2,FALSE)</f>
@@ -4257,34 +4497,34 @@
         <v>42</v>
       </c>
       <c r="X5" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Y5" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Z5" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AA5" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AB5" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AC5" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AD5" s="40" t="s">
         <v>42</v>
       </c>
       <c r="AE5" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AF5" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AG5" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AH5" s="40">
         <f>VLOOKUP(W5,units!$B$4:$C$7,2,FALSE)</f>
@@ -4482,34 +4722,34 @@
         <v>42</v>
       </c>
       <c r="X6" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Y6" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Z6" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AA6" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AB6" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AC6" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AD6" s="40" t="s">
         <v>42</v>
       </c>
       <c r="AE6" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AF6" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AG6" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AH6" s="40">
         <f>VLOOKUP(W6,units!$B$4:$C$7,2,FALSE)</f>
@@ -4707,34 +4947,34 @@
         <v>42</v>
       </c>
       <c r="X7" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Y7" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Z7" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AA7" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AB7" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AC7" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AD7" s="40" t="s">
         <v>42</v>
       </c>
       <c r="AE7" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AF7" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AG7" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AH7" s="40">
         <f>VLOOKUP(W7,units!$B$4:$C$7,2,FALSE)</f>
@@ -4864,17 +5104,17 @@
     </row>
     <row r="8" spans="1:71" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="38" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D8" s="39" t="str">
         <f t="shared" si="0"/>
         <v>edit BCHydro2018</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="F8" s="39" t="str">
         <f t="shared" si="1"/>
@@ -4932,34 +5172,34 @@
         <v>42</v>
       </c>
       <c r="X8" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Y8" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Z8" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AA8" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AB8" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AC8" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AD8" s="40" t="s">
         <v>42</v>
       </c>
       <c r="AE8" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AF8" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AG8" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AH8" s="40">
         <f>VLOOKUP(W8,units!$B$4:$C$7,2,FALSE)</f>
@@ -5084,22 +5324,22 @@
         <v>132</v>
       </c>
       <c r="BS8" s="39" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:71" s="48" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="47" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="D9" s="25" t="str">
         <f t="shared" si="0"/>
         <v>edit Kuehn2020</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F9" s="25" t="str">
         <f t="shared" si="1"/>
@@ -5160,31 +5400,31 @@
         <v>119</v>
       </c>
       <c r="Y9" s="24" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Z9" s="24" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AA9" s="24" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AB9" s="24" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AC9" s="24" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AD9" s="24" t="s">
         <v>42</v>
       </c>
       <c r="AE9" s="24" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AF9" s="24" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AG9" s="24" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AH9" s="24">
         <f>VLOOKUP(W9,units!$B$4:$C$7,2,FALSE)</f>
@@ -5309,22 +5549,22 @@
         <v>132</v>
       </c>
       <c r="BS9" s="25" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
     </row>
     <row r="10" spans="1:71" s="46" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="42" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D10" s="43" t="str">
         <f t="shared" si="0"/>
         <v>edit Parker2020</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="F10" s="43" t="str">
         <f t="shared" si="1"/>
@@ -5385,31 +5625,31 @@
         <v>119</v>
       </c>
       <c r="Y10" s="44" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Z10" s="44" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AA10" s="44" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AB10" s="44" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AC10" s="44" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AD10" s="44" t="s">
         <v>42</v>
       </c>
       <c r="AE10" s="44" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AF10" s="44" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AG10" s="44" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AH10" s="44">
         <f>VLOOKUP(W10,units!$B$4:$C$7,2,FALSE)</f>
@@ -5534,7 +5774,7 @@
         <v>132</v>
       </c>
       <c r="BS10" s="43" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
     </row>
     <row r="11" spans="1:71" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5608,34 +5848,34 @@
         <v>42</v>
       </c>
       <c r="X11" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Y11" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Z11" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AA11" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AB11" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AC11" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AD11" s="40" t="s">
         <v>42</v>
       </c>
       <c r="AE11" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AF11" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AG11" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AH11" s="40">
         <f>VLOOKUP(W11,units!$B$4:$C$7,2,FALSE)</f>
@@ -5833,34 +6073,34 @@
         <v>42</v>
       </c>
       <c r="X12" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Y12" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Z12" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AA12" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AB12" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AC12" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AD12" s="40" t="s">
         <v>42</v>
       </c>
       <c r="AE12" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AF12" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AG12" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AH12" s="40">
         <f>VLOOKUP(W12,units!$B$4:$C$7,2,FALSE)</f>
@@ -6058,34 +6298,34 @@
         <v>42</v>
       </c>
       <c r="X13" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Y13" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Z13" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AA13" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AB13" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AC13" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AD13" s="40" t="s">
         <v>42</v>
       </c>
       <c r="AE13" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AF13" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AG13" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AH13" s="40">
         <f>VLOOKUP(W13,units!$B$4:$C$7,2,FALSE)</f>
@@ -6283,34 +6523,34 @@
         <v>42</v>
       </c>
       <c r="X14" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Y14" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Z14" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AA14" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AB14" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AC14" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AD14" s="40" t="s">
         <v>42</v>
       </c>
       <c r="AE14" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AF14" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AG14" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AH14" s="40">
         <f>VLOOKUP(W14,units!$B$4:$C$7,2,FALSE)</f>
@@ -6440,17 +6680,17 @@
     </row>
     <row r="15" spans="1:71" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="38" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="D15" s="39" t="str">
         <f t="shared" ref="D15" si="2">"edit "&amp;C15</f>
         <v>edit Montalva2018</v>
       </c>
       <c r="E15" s="39" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="F15" s="39" t="str">
         <f t="shared" ref="F15" si="3">"edit "&amp;E15</f>
@@ -6508,34 +6748,34 @@
         <v>42</v>
       </c>
       <c r="X15" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Y15" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Z15" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AA15" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AB15" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AC15" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AD15" s="40" t="s">
         <v>42</v>
       </c>
       <c r="AE15" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AF15" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AG15" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AH15" s="40">
         <f>VLOOKUP(W15,units!$B$4:$C$7,2,FALSE)</f>
@@ -6736,31 +6976,31 @@
         <v>118</v>
       </c>
       <c r="Y16" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Z16" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AA16" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AB16" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AC16" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AD16" s="40" t="s">
         <v>42</v>
       </c>
       <c r="AE16" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AF16" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AG16" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AH16" s="40">
         <f>VLOOKUP(W16,units!$B$4:$C$7,2,FALSE)</f>
@@ -6961,31 +7201,31 @@
         <v>119</v>
       </c>
       <c r="Y17" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Z17" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AA17" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AB17" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AC17" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AD17" s="40" t="s">
         <v>89</v>
       </c>
       <c r="AE17" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AF17" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AG17" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AH17" s="40" t="str">
         <f>VLOOKUP(W17,units!$B$4:$C$7,2,FALSE)</f>
@@ -7183,34 +7423,34 @@
         <v>89</v>
       </c>
       <c r="X18" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Y18" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Z18" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AA18" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AB18" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AC18" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AD18" s="40" t="s">
         <v>89</v>
       </c>
       <c r="AE18" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AF18" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AG18" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AH18" s="40" t="str">
         <f>VLOOKUP(W18,units!$B$4:$C$7,2,FALSE)</f>
@@ -7411,31 +7651,31 @@
         <v>119</v>
       </c>
       <c r="Y19" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Z19" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AA19" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AB19" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AC19" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AD19" s="40" t="s">
         <v>89</v>
       </c>
       <c r="AE19" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AF19" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AG19" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AH19" s="40" t="str">
         <f>VLOOKUP(W19,units!$B$4:$C$7,2,FALSE)</f>
@@ -7636,31 +7876,31 @@
         <v>119</v>
       </c>
       <c r="Y20" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Z20" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AA20" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AB20" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AC20" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AD20" s="40" t="s">
         <v>89</v>
       </c>
       <c r="AE20" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AF20" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AG20" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AH20" s="40" t="str">
         <f>VLOOKUP(W20,units!$B$4:$C$7,2,FALSE)</f>
@@ -7861,31 +8101,31 @@
         <v>119</v>
       </c>
       <c r="Y21" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Z21" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AA21" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AB21" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AC21" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AD21" s="40" t="s">
         <v>89</v>
       </c>
       <c r="AE21" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AF21" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AG21" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AH21" s="40" t="str">
         <f>VLOOKUP(W21,units!$B$4:$C$7,2,FALSE)</f>
@@ -8015,17 +8255,17 @@
     </row>
     <row r="22" spans="2:71" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="38" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="C22" s="39" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="D22" s="39" t="str">
         <f t="shared" si="0"/>
         <v>edit GarciaJaimes2017VH</v>
       </c>
       <c r="E22" s="39" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="F22" s="39" t="str">
         <f t="shared" si="1"/>
@@ -8080,37 +8320,37 @@
         <v>1</v>
       </c>
       <c r="W22" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="X22" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Y22" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Z22" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AA22" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AB22" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AC22" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AD22" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AE22" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AF22" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AG22" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AH22" s="40">
         <f>VLOOKUP(W22,units!$B$4:$C$7,2,FALSE)</f>
@@ -8240,17 +8480,17 @@
     </row>
     <row r="23" spans="2:71" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="38" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="C23" s="39" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="D23" s="39" t="str">
         <f t="shared" si="0"/>
         <v>edit GA2011</v>
       </c>
       <c r="E23" s="39" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="F23" s="39" t="str">
         <f t="shared" si="1"/>
@@ -8285,37 +8525,37 @@
         <v>1</v>
       </c>
       <c r="W23" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="X23" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Y23" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Z23" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AA23" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AB23" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AC23" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AD23" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AE23" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AF23" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AG23" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AH23" s="40">
         <f>VLOOKUP(W23,units!$B$4:$C$7,2,FALSE)</f>
@@ -8440,22 +8680,22 @@
         <v>200</v>
       </c>
       <c r="BS23" s="39" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="24" spans="2:71" s="46" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="42" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="C24" s="43" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="D24" s="43" t="str">
         <f t="shared" ref="D24:D25" si="4">"edit "&amp;C24</f>
         <v>edit SBSA2016</v>
       </c>
       <c r="E24" s="43" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="F24" s="43" t="str">
         <f t="shared" ref="F24:F25" si="5">"edit "&amp;E24</f>
@@ -8516,31 +8756,31 @@
         <v>119</v>
       </c>
       <c r="Y24" s="44" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Z24" s="44" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AA24" s="44" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AB24" s="44" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AC24" s="44" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AD24" s="44" t="s">
         <v>42</v>
       </c>
       <c r="AE24" s="44" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AF24" s="44" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AG24" s="44" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AH24" s="44">
         <f>VLOOKUP(W24,units!$B$4:$C$7,2,FALSE)</f>
@@ -8649,22 +8889,22 @@
         <v>300</v>
       </c>
       <c r="BS24" s="39" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
     </row>
     <row r="25" spans="2:71" s="46" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="42" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="C25" s="43" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="D25" s="43" t="str">
         <f t="shared" si="4"/>
         <v>edit GKAS2017</v>
       </c>
       <c r="E25" s="43" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="F25" s="43" t="str">
         <f t="shared" si="5"/>
@@ -8722,34 +8962,34 @@
         <v>42</v>
       </c>
       <c r="X25" s="44" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Y25" s="44" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Z25" s="44" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AA25" s="44" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AB25" s="44" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AC25" s="44" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AD25" s="44" t="s">
         <v>42</v>
       </c>
       <c r="AE25" s="44" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AF25" s="44" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AG25" s="44" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AH25" s="44">
         <f>VLOOKUP(W25,units!$B$4:$C$7,2,FALSE)</f>
@@ -8858,7 +9098,7 @@
         <v>300</v>
       </c>
       <c r="BS25" s="43" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
     </row>
     <row r="26" spans="2:71" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8931,34 +9171,34 @@
         <v>89</v>
       </c>
       <c r="X26" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Y26" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Z26" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AA26" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AB26" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AC26" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AD26" s="40" t="s">
         <v>89</v>
       </c>
       <c r="AE26" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AF26" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AG26" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AH26" s="40" t="str">
         <f>VLOOKUP(W26,units!$B$4:$C$7,2,FALSE)</f>
@@ -9156,34 +9396,34 @@
         <v>42</v>
       </c>
       <c r="X27" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Y27" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Z27" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AA27" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AB27" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AC27" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AD27" s="40" t="s">
         <v>42</v>
       </c>
       <c r="AE27" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AF27" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AG27" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AH27" s="40">
         <f>VLOOKUP(W27,units!$B$4:$C$7,2,FALSE)</f>
@@ -9381,34 +9621,34 @@
         <v>42</v>
       </c>
       <c r="X28" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Y28" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Z28" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AA28" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AB28" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AC28" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AD28" s="40" t="s">
         <v>42</v>
       </c>
       <c r="AE28" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AF28" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AG28" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AH28" s="40">
         <f>VLOOKUP(W28,units!$B$4:$C$7,2,FALSE)</f>
@@ -9609,31 +9849,31 @@
         <v>119</v>
       </c>
       <c r="Y29" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Z29" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AA29" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AB29" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AC29" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AD29" s="40" t="s">
         <v>42</v>
       </c>
       <c r="AE29" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AF29" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AG29" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AH29" s="40">
         <f>VLOOKUP(W29,units!$B$4:$C$7,2,FALSE)</f>
@@ -9834,31 +10074,31 @@
         <v>119</v>
       </c>
       <c r="Y30" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Z30" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AA30" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AB30" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AC30" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AD30" s="40" t="s">
         <v>42</v>
       </c>
       <c r="AE30" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AF30" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AG30" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AH30" s="40">
         <f>VLOOKUP(W30,units!$B$4:$C$7,2,FALSE)</f>
@@ -10059,31 +10299,31 @@
         <v>119</v>
       </c>
       <c r="Y31" s="40" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="Z31" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AA31" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AB31" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AC31" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AD31" s="40" t="s">
         <v>42</v>
       </c>
       <c r="AE31" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AF31" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AG31" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AH31" s="40">
         <f>VLOOKUP(W31,units!$B$4:$C$7,2,FALSE)</f>
@@ -10284,31 +10524,31 @@
         <v>119</v>
       </c>
       <c r="Y32" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Z32" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AA32" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AB32" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AC32" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AD32" s="40" t="s">
         <v>42</v>
       </c>
       <c r="AE32" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AF32" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AG32" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AH32" s="40">
         <f>VLOOKUP(W32,units!$B$4:$C$7,2,FALSE)</f>
@@ -10506,34 +10746,34 @@
         <v>42</v>
       </c>
       <c r="X33" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Y33" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Z33" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AA33" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AB33" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AC33" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AD33" s="40" t="s">
         <v>42</v>
       </c>
       <c r="AE33" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AF33" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AG33" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AH33" s="40">
         <f>VLOOKUP(W33,units!$B$4:$C$7,2,FALSE)</f>
@@ -10731,34 +10971,34 @@
         <v>42</v>
       </c>
       <c r="X34" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Y34" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Z34" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AA34" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AB34" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AC34" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AD34" s="40" t="s">
         <v>42</v>
       </c>
       <c r="AE34" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AF34" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AG34" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AH34" s="40">
         <f>VLOOKUP(W34,units!$B$4:$C$7,2,FALSE)</f>
@@ -10959,31 +11199,31 @@
         <v>119</v>
       </c>
       <c r="Y35" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Z35" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AA35" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AB35" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AC35" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AD35" s="40" t="s">
         <v>42</v>
       </c>
       <c r="AE35" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AF35" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AG35" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AH35" s="40">
         <f>VLOOKUP(W35,units!$B$4:$C$7,2,FALSE)</f>
@@ -11184,31 +11424,31 @@
         <v>119</v>
       </c>
       <c r="Y36" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Z36" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AA36" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AB36" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AC36" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AD36" s="40" t="s">
         <v>42</v>
       </c>
       <c r="AE36" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AF36" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AG36" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AH36" s="40">
         <f>VLOOKUP(W36,units!$B$4:$C$7,2,FALSE)</f>
@@ -11409,31 +11649,31 @@
         <v>119</v>
       </c>
       <c r="Y37" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Z37" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AA37" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AB37" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AC37" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AD37" s="40" t="s">
         <v>42</v>
       </c>
       <c r="AE37" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AF37" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AG37" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AH37" s="40">
         <f>VLOOKUP(W37,units!$B$4:$C$7,2,FALSE)</f>
@@ -11634,31 +11874,31 @@
         <v>119</v>
       </c>
       <c r="Y38" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Z38" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AA38" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AB38" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AC38" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AD38" s="40" t="s">
         <v>42</v>
       </c>
       <c r="AE38" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AF38" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AG38" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AH38" s="40">
         <f>VLOOKUP(W38,units!$B$4:$C$7,2,FALSE)</f>
@@ -11856,34 +12096,34 @@
         <v>89</v>
       </c>
       <c r="X39" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Y39" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Z39" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AA39" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AB39" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AC39" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AD39" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AE39" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AF39" s="40" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="AG39" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AH39" s="40" t="str">
         <f>VLOOKUP(W39,units!$B$4:$C$7,2,FALSE)</f>
@@ -12084,31 +12324,31 @@
         <v>119</v>
       </c>
       <c r="Y40" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Z40" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AA40" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AB40" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AC40" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AD40" s="40" t="s">
         <v>89</v>
       </c>
       <c r="AE40" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AF40" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AG40" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AH40" s="40" t="str">
         <f>VLOOKUP(W40,units!$B$4:$C$7,2,FALSE)</f>
@@ -12238,10 +12478,10 @@
     </row>
     <row r="41" spans="2:71" s="46" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="42" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="C41" s="43" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="D41" s="43" t="str">
         <f t="shared" si="0"/>
@@ -12293,31 +12533,31 @@
         <v>119</v>
       </c>
       <c r="Y41" s="44" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Z41" s="44" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AA41" s="44" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AB41" s="44" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AC41" s="44" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AD41" s="44" t="s">
         <v>42</v>
       </c>
       <c r="AE41" s="44" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AF41" s="44" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AG41" s="44" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AH41" s="44">
         <f>VLOOKUP(W41,units!$B$4:$C$7,2,FALSE)</f>
@@ -12442,7 +12682,7 @@
         <v>200</v>
       </c>
       <c r="BS41" s="43" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
     </row>
     <row r="42" spans="2:71" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -12515,34 +12755,34 @@
         <v>89</v>
       </c>
       <c r="X42" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Y42" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Z42" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AA42" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AB42" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AC42" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AD42" s="40" t="s">
         <v>89</v>
       </c>
       <c r="AE42" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AF42" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AG42" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AH42" s="40" t="str">
         <f>VLOOKUP(W42,units!$B$4:$C$7,2,FALSE)</f>
@@ -12743,31 +12983,31 @@
         <v>119</v>
       </c>
       <c r="Y43" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Z43" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AA43" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AB43" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AC43" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AD43" s="40" t="s">
         <v>89</v>
       </c>
       <c r="AE43" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AF43" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AG43" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AH43" s="40" t="str">
         <f>VLOOKUP(W43,units!$B$4:$C$7,2,FALSE)</f>
@@ -12968,31 +13208,31 @@
         <v>119</v>
       </c>
       <c r="Y44" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Z44" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AA44" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AB44" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AC44" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AD44" s="40" t="s">
         <v>89</v>
       </c>
       <c r="AE44" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AF44" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AG44" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AH44" s="40" t="str">
         <f>VLOOKUP(W44,units!$B$4:$C$7,2,FALSE)</f>
@@ -13122,17 +13362,17 @@
     </row>
     <row r="45" spans="2:71" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="38" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="C45" s="39" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="D45" s="39" t="str">
         <f>"edit "&amp;C45</f>
         <v>edit Cauzzi2015</v>
       </c>
       <c r="E45" s="39" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="F45" s="39" t="str">
         <f>"edit "&amp;E45</f>
@@ -13193,31 +13433,31 @@
         <v>119</v>
       </c>
       <c r="Y45" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Z45" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AA45" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AB45" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AC45" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AD45" s="40" t="s">
         <v>89</v>
       </c>
       <c r="AE45" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AF45" s="40" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="AG45" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AH45" s="40" t="str">
         <f>VLOOKUP(W45,units!$B$4:$C$7,2,FALSE)</f>
@@ -13342,7 +13582,7 @@
         <v>150</v>
       </c>
       <c r="BS45" s="39" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
     </row>
     <row r="46" spans="2:71" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13412,37 +13652,37 @@
         <v>0</v>
       </c>
       <c r="W46" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="X46" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Y46" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Z46" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AA46" s="40" t="s">
         <v>117</v>
       </c>
       <c r="AB46" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AC46" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AD46" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AE46" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AF46" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AG46" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AH46" s="40">
         <f>VLOOKUP(W46,units!$B$4:$C$7,2,FALSE)</f>
@@ -13637,16 +13877,16 @@
         <v>0</v>
       </c>
       <c r="W47" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="X47" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Y47" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Z47" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AA47" s="40" t="s">
         <v>118</v>
@@ -13655,19 +13895,19 @@
         <v>118</v>
       </c>
       <c r="AC47" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AD47" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AE47" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AF47" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AG47" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AH47" s="40">
         <f>VLOOKUP(W47,units!$B$4:$C$7,2,FALSE)</f>
@@ -13862,37 +14102,37 @@
         <v>0</v>
       </c>
       <c r="W48" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="X48" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Y48" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Z48" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AA48" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AB48" s="40" t="s">
         <v>118</v>
       </c>
       <c r="AC48" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AD48" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AE48" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AF48" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AG48" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AH48" s="40">
         <f>VLOOKUP(W48,units!$B$4:$C$7,2,FALSE)</f>
@@ -14087,16 +14327,16 @@
         <v>0</v>
       </c>
       <c r="W49" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="X49" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Y49" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Z49" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AA49" s="40" t="s">
         <v>119</v>
@@ -14108,16 +14348,16 @@
         <v>119</v>
       </c>
       <c r="AD49" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AE49" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AF49" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AG49" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AH49" s="40">
         <f>VLOOKUP(W49,units!$B$4:$C$7,2,FALSE)</f>
@@ -14312,37 +14552,37 @@
         <v>0</v>
       </c>
       <c r="W50" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="X50" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Y50" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Z50" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AA50" s="40" t="s">
         <v>117</v>
       </c>
       <c r="AB50" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AC50" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AD50" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AE50" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AF50" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AG50" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AH50" s="40">
         <f>VLOOKUP(W50,units!$B$4:$C$7,2,FALSE)</f>
@@ -14537,37 +14777,37 @@
         <v>0</v>
       </c>
       <c r="W51" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="X51" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Y51" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Z51" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AA51" s="40" t="s">
         <v>117</v>
       </c>
       <c r="AB51" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AC51" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AD51" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AE51" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AF51" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AG51" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AH51" s="40">
         <f>VLOOKUP(W51,units!$B$4:$C$7,2,FALSE)</f>
@@ -14762,16 +15002,16 @@
         <v>0</v>
       </c>
       <c r="W52" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="X52" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Y52" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Z52" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AA52" s="40" t="s">
         <v>118</v>
@@ -14780,19 +15020,19 @@
         <v>118</v>
       </c>
       <c r="AC52" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AD52" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AE52" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AF52" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AG52" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AH52" s="40">
         <f>VLOOKUP(W52,units!$B$4:$C$7,2,FALSE)</f>
@@ -14987,37 +15227,37 @@
         <v>0</v>
       </c>
       <c r="W53" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="X53" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Y53" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Z53" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AA53" s="40" t="s">
         <v>118</v>
       </c>
       <c r="AB53" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AC53" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AD53" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AE53" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AF53" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AG53" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AH53" s="40">
         <f>VLOOKUP(W53,units!$B$4:$C$7,2,FALSE)</f>
@@ -15147,807 +15387,807 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B43:C44 B11:C14 B8:B10 B3:C7 D3:D14 AS43:BC44 AS26:BC39 BS52:BS53 BS2:BS8 BS42:BS44 L26:V44 E11:E14 E3:E7 AS52:BC53 AS54:BS1048576 BD46:BR53 L46:V53 BS46:BS49 AS46:BC50 T2:V14 L2:R14 AS2:BR14 BS11:BS14 L16:R23 T16:V21 AS16:BC21 I3:K23 F3:H14 B54:AG1048576 B45:H53 B2:K2 B15:H23 BD16:BS23 BS26:BS39 B26:C41 D26:K40 D42:H44 D41:G41 I42:K53 BD26:BR44">
-    <cfRule type="cellIs" dxfId="286" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="203" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BS50">
-    <cfRule type="cellIs" dxfId="285" priority="201" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="201" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:S14 S16:S21">
-    <cfRule type="cellIs" dxfId="284" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="200" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T22:V23 AS22:BC23">
-    <cfRule type="cellIs" dxfId="283" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="199" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S22:S23">
-    <cfRule type="cellIs" dxfId="282" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="198" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42:C42 AS42:BC42">
-    <cfRule type="cellIs" dxfId="281" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="196" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS40:BC41">
-    <cfRule type="cellIs" dxfId="280" priority="194" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="194" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BS40">
-    <cfRule type="cellIs" dxfId="279" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="192" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L52:V53 L46:V50 L2:V14 L16:V23 L26:V44">
-    <cfRule type="cellIs" dxfId="278" priority="191" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="191" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS44:BC44">
-    <cfRule type="cellIs" dxfId="277" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="190" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L44:V44">
-    <cfRule type="cellIs" dxfId="276" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="188" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BS44">
-    <cfRule type="cellIs" dxfId="275" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="187" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS51:BC51">
-    <cfRule type="cellIs" dxfId="274" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="186" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L51:V51">
-    <cfRule type="cellIs" dxfId="273" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="183" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BS51">
-    <cfRule type="cellIs" dxfId="272" priority="182" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="182" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:C10 E8:E10">
-    <cfRule type="cellIs" dxfId="271" priority="181" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="181" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:AC2 W26:AG39 W52:AG53 W43:AG44 W46:AG50 W3:AC14 AE2:AG14 AE16:AG21 W16:AC21">
-    <cfRule type="cellIs" dxfId="270" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="179" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD2:AD14 AD16:AD21">
-    <cfRule type="cellIs" dxfId="269" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="178" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE22:AG23 W22:AC23 X23:AG23">
-    <cfRule type="cellIs" dxfId="268" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="177" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD22:AD23">
-    <cfRule type="cellIs" dxfId="267" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="176" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W42:AG42">
-    <cfRule type="cellIs" dxfId="266" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="175" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W40:AG41">
-    <cfRule type="cellIs" dxfId="265" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="174" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:AG2 W2:W14 W52:AG53 W46:W53 W46:AG50 W3:AG14 W16:AG23 W26:AG44">
-    <cfRule type="cellIs" dxfId="264" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="173" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W44:AG44">
-    <cfRule type="cellIs" dxfId="263" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="172" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W44:AG44">
-    <cfRule type="cellIs" dxfId="262" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="171" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W51:AG51">
-    <cfRule type="cellIs" dxfId="261" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="170" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W51:AG51">
-    <cfRule type="cellIs" dxfId="260" priority="169" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="169" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X40:X41">
-    <cfRule type="cellIs" dxfId="259" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="139" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W46:AG53 W2:AG14 W16:AG23 W26:AG44">
-    <cfRule type="cellIs" dxfId="258" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="167" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W46:AG53 W2:AG14 W16:AG23 W26:AG44">
-    <cfRule type="cellIs" dxfId="257" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="166" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W2:W14 W46:W53 W16:W23 W26:W44">
-    <cfRule type="cellIs" dxfId="256" priority="165" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="165" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD3:AD4">
-    <cfRule type="cellIs" dxfId="255" priority="164" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="164" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD3:AD4">
-    <cfRule type="cellIs" dxfId="254" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="163" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD5:AD14 AD16">
-    <cfRule type="cellIs" dxfId="253" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="162" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD5:AD14 AD16">
-    <cfRule type="cellIs" dxfId="252" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="161" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD20:AD21 AD17:AD18">
-    <cfRule type="cellIs" dxfId="251" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="160" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD26 AD20:AD21 AD17:AD18">
-    <cfRule type="cellIs" dxfId="250" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="159" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD27">
-    <cfRule type="cellIs" dxfId="249" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="158" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD29">
-    <cfRule type="cellIs" dxfId="248" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="157" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD30">
-    <cfRule type="cellIs" dxfId="247" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="156" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD31">
-    <cfRule type="cellIs" dxfId="246" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="155" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD32">
-    <cfRule type="cellIs" dxfId="245" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="154" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD34">
-    <cfRule type="cellIs" dxfId="244" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="153" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD35">
-    <cfRule type="cellIs" dxfId="243" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="152" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD36">
-    <cfRule type="cellIs" dxfId="242" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="151" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD37">
-    <cfRule type="cellIs" dxfId="241" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="150" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD38">
-    <cfRule type="cellIs" dxfId="240" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="149" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W40:W41">
-    <cfRule type="cellIs" dxfId="239" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="148" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W42">
-    <cfRule type="cellIs" dxfId="238" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="147" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD39">
-    <cfRule type="cellIs" dxfId="237" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="146" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD40:AD41">
-    <cfRule type="cellIs" dxfId="236" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="145" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD40:AD41">
-    <cfRule type="cellIs" dxfId="235" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="144" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD42">
-    <cfRule type="cellIs" dxfId="234" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="143" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD42">
-    <cfRule type="cellIs" dxfId="233" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="142" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD43">
-    <cfRule type="cellIs" dxfId="232" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="141" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD44">
-    <cfRule type="cellIs" dxfId="231" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="140" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA51">
-    <cfRule type="cellIs" dxfId="230" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="138" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA51">
-    <cfRule type="cellIs" dxfId="229" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="137" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH54:AR1048576">
-    <cfRule type="cellIs" dxfId="228" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="136" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH26:AR39 AH52:AR53 AH43:AR44 AI2:AN14 AH46:AR50 AP46:AR53 AI46:AN53 AH3:AN14 AP2:AR14 AH16:AN21 AP16:AR23 AI16:AN23 AI26:AN44 AP26:AR44">
-    <cfRule type="cellIs" dxfId="227" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="135" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO46:AO53 AO2:AO14 AO16:AO23 AO26:AO44">
-    <cfRule type="cellIs" dxfId="226" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="134" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP22:AR23 AH22:AN23">
-    <cfRule type="cellIs" dxfId="225" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="133" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO22:AO23">
-    <cfRule type="cellIs" dxfId="224" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="132" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH42:AR42">
-    <cfRule type="cellIs" dxfId="223" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="131" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH40:AR41">
-    <cfRule type="cellIs" dxfId="222" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="130" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH46:AR53 AH2:AR14 AH16:AR23 AH26:AR44">
-    <cfRule type="cellIs" dxfId="221" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="129" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH44:AR44">
-    <cfRule type="cellIs" dxfId="220" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="128" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH44:AR44">
-    <cfRule type="cellIs" dxfId="219" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="127" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH51:AR51">
-    <cfRule type="cellIs" dxfId="218" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="126" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH51:AR51">
-    <cfRule type="cellIs" dxfId="217" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="125" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI40:AI41">
-    <cfRule type="cellIs" dxfId="216" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="96" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH46:AR53 AH2:AR14 AH16:AR23 AH26:AR44">
-    <cfRule type="cellIs" dxfId="215" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="124" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH46:AR53 AH2:AR14 AH16:AR23 AH26:AR44">
-    <cfRule type="cellIs" dxfId="214" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="123" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH46:AH53 AH2:AH14 AH16:AH23 AH26:AH44">
-    <cfRule type="cellIs" dxfId="213" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="122" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO3:AO4">
-    <cfRule type="cellIs" dxfId="212" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="121" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO3:AO4">
-    <cfRule type="cellIs" dxfId="211" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="120" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO5:AO14 AO16">
-    <cfRule type="cellIs" dxfId="210" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="119" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO5:AO14 AO16">
-    <cfRule type="cellIs" dxfId="209" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="118" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO20:AO21 AO17:AO18">
-    <cfRule type="cellIs" dxfId="208" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="117" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO26 AO20:AO21 AO17:AO18">
-    <cfRule type="cellIs" dxfId="207" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="116" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO27">
-    <cfRule type="cellIs" dxfId="206" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="115" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO29">
-    <cfRule type="cellIs" dxfId="205" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="114" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO30">
-    <cfRule type="cellIs" dxfId="204" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="113" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO31">
-    <cfRule type="cellIs" dxfId="203" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="112" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO32">
-    <cfRule type="cellIs" dxfId="202" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="111" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO34">
-    <cfRule type="cellIs" dxfId="201" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="110" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO35">
-    <cfRule type="cellIs" dxfId="200" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="109" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO36">
-    <cfRule type="cellIs" dxfId="199" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="108" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO37">
-    <cfRule type="cellIs" dxfId="198" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="107" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO38">
-    <cfRule type="cellIs" dxfId="197" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="106" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH40:AH41">
-    <cfRule type="cellIs" dxfId="196" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="105" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH42">
-    <cfRule type="cellIs" dxfId="195" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="104" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO39">
-    <cfRule type="cellIs" dxfId="194" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="103" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO40:AO41">
-    <cfRule type="cellIs" dxfId="193" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="102" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO40:AO41">
-    <cfRule type="cellIs" dxfId="192" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="101" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO42">
-    <cfRule type="cellIs" dxfId="191" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="100" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO42">
-    <cfRule type="cellIs" dxfId="190" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="99" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO43">
-    <cfRule type="cellIs" dxfId="189" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="98" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO44">
-    <cfRule type="cellIs" dxfId="188" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="97" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL51">
-    <cfRule type="cellIs" dxfId="187" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="95" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL51">
-    <cfRule type="cellIs" dxfId="186" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="94" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W45">
-    <cfRule type="cellIs" dxfId="185" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="73" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH45:AR45">
-    <cfRule type="cellIs" dxfId="184" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="72" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH45">
-    <cfRule type="cellIs" dxfId="183" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="67" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L45:V45 AS45:BS45">
-    <cfRule type="cellIs" dxfId="182" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="79" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L45:V45">
-    <cfRule type="cellIs" dxfId="181" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="78" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W45:AG45">
-    <cfRule type="cellIs" dxfId="180" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="77" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W45:AG45">
-    <cfRule type="cellIs" dxfId="179" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="76" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W45:AG45">
-    <cfRule type="cellIs" dxfId="178" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="75" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W45:AG45">
-    <cfRule type="cellIs" dxfId="177" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="74" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO45">
-    <cfRule type="cellIs" dxfId="176" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="71" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH45:AR45">
-    <cfRule type="cellIs" dxfId="175" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="70" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH45:AR45">
-    <cfRule type="cellIs" dxfId="174" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="69" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH45:AR45">
-    <cfRule type="cellIs" dxfId="173" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="68" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BS9">
-    <cfRule type="cellIs" dxfId="172" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="66" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BS10">
-    <cfRule type="cellIs" dxfId="171" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="65" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T15:V15 L15:R15 AS15:BS15">
-    <cfRule type="cellIs" dxfId="170" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="45" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S15">
-    <cfRule type="cellIs" dxfId="169" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="44" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15:V15">
-    <cfRule type="cellIs" dxfId="168" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="43" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W15:AC15 AE15:AG15">
-    <cfRule type="cellIs" dxfId="167" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="42" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD15">
-    <cfRule type="cellIs" dxfId="166" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="41" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W15:AG15">
-    <cfRule type="cellIs" dxfId="165" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="40" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W15:AG15">
-    <cfRule type="cellIs" dxfId="164" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="39" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W15:AG15">
-    <cfRule type="cellIs" dxfId="163" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="38" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W15">
-    <cfRule type="cellIs" dxfId="162" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="37" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD15">
-    <cfRule type="cellIs" dxfId="161" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="36" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD15">
-    <cfRule type="cellIs" dxfId="160" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="35" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH15:AN15 AP15:AR15">
-    <cfRule type="cellIs" dxfId="159" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="34" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO15">
-    <cfRule type="cellIs" dxfId="158" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="33" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH15:AR15">
-    <cfRule type="cellIs" dxfId="157" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="32" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH15:AR15">
-    <cfRule type="cellIs" dxfId="156" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="31" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH15:AR15">
-    <cfRule type="cellIs" dxfId="155" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="30" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH15">
-    <cfRule type="cellIs" dxfId="154" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="29" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO15">
-    <cfRule type="cellIs" dxfId="153" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="28" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO15">
-    <cfRule type="cellIs" dxfId="152" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="27" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X23:AG23">
-    <cfRule type="cellIs" dxfId="151" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="26" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD24:BR25 B24:R25">
-    <cfRule type="cellIs" dxfId="150" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="25" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T24:V25 AS24:BC25">
-    <cfRule type="cellIs" dxfId="149" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="24" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S24:S25">
-    <cfRule type="cellIs" dxfId="148" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="23" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L24:V25">
-    <cfRule type="cellIs" dxfId="147" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W24:AG25">
-    <cfRule type="cellIs" dxfId="146" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="21" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD24:AD25">
-    <cfRule type="cellIs" dxfId="145" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="20" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W24:AG25">
-    <cfRule type="cellIs" dxfId="144" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W24:AG25">
-    <cfRule type="cellIs" dxfId="143" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="18" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W24:AG25">
-    <cfRule type="cellIs" dxfId="142" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W24:W25">
-    <cfRule type="cellIs" dxfId="141" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="16" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP24:AR25 AI24:AN25">
-    <cfRule type="cellIs" dxfId="140" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="15" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO24:AO25">
-    <cfRule type="cellIs" dxfId="139" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="14" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP24:AR25 AH24:AN25">
-    <cfRule type="cellIs" dxfId="138" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="13" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO24:AO25">
-    <cfRule type="cellIs" dxfId="137" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="12" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH24:AR25">
-    <cfRule type="cellIs" dxfId="136" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH24:AR25">
-    <cfRule type="cellIs" dxfId="135" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="10" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH24:AR25">
-    <cfRule type="cellIs" dxfId="134" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH24:AH25">
-    <cfRule type="cellIs" dxfId="133" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="8" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X24:AG25">
-    <cfRule type="cellIs" dxfId="132" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="7" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BS24">
-    <cfRule type="cellIs" dxfId="131" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="6" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BS25">
-    <cfRule type="cellIs" dxfId="130" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="5" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41:K41">
-    <cfRule type="cellIs" dxfId="129" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="4" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD41">
-    <cfRule type="cellIs" dxfId="128" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="3" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD41">
-    <cfRule type="cellIs" dxfId="127" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="2" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BS41">
-    <cfRule type="cellIs" dxfId="126" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="1" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15993,7 +16233,7 @@
   <dimension ref="A1:A40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16187,16 +16427,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BS49"/>
   <sheetViews>
-    <sheetView topLeftCell="AL1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AY3" sqref="AY3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="37" max="47" width="8.140625" style="2" customWidth="1"/>
     <col min="48" max="58" width="8" style="2" customWidth="1"/>
   </cols>
@@ -16311,70 +16551,70 @@
         <v>198</v>
       </c>
       <c r="AK1" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="AL1" s="37" t="s">
+        <v>254</v>
+      </c>
+      <c r="AM1" s="37" t="s">
+        <v>255</v>
+      </c>
+      <c r="AN1" s="37" t="s">
+        <v>256</v>
+      </c>
+      <c r="AO1" s="37" t="s">
+        <v>257</v>
+      </c>
+      <c r="AP1" s="37" t="s">
+        <v>258</v>
+      </c>
+      <c r="AQ1" s="37" t="s">
+        <v>259</v>
+      </c>
+      <c r="AR1" s="37" t="s">
+        <v>260</v>
+      </c>
+      <c r="AS1" s="37" t="s">
         <v>261</v>
       </c>
-      <c r="AL1" s="37" t="s">
+      <c r="AT1" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="AM1" s="37" t="s">
+      <c r="AU1" s="37" t="s">
         <v>263</v>
       </c>
-      <c r="AN1" s="37" t="s">
-        <v>264</v>
-      </c>
-      <c r="AO1" s="37" t="s">
+      <c r="AV1" s="37" t="s">
         <v>265</v>
       </c>
-      <c r="AP1" s="37" t="s">
+      <c r="AW1" s="37" t="s">
         <v>266</v>
       </c>
-      <c r="AQ1" s="37" t="s">
+      <c r="AX1" s="37" t="s">
         <v>267</v>
       </c>
-      <c r="AR1" s="37" t="s">
+      <c r="AY1" s="37" t="s">
+        <v>275</v>
+      </c>
+      <c r="AZ1" s="37" t="s">
         <v>268</v>
       </c>
-      <c r="AS1" s="37" t="s">
+      <c r="BA1" s="37" t="s">
+        <v>274</v>
+      </c>
+      <c r="BB1" s="37" t="s">
+        <v>273</v>
+      </c>
+      <c r="BC1" s="37" t="s">
         <v>269</v>
       </c>
-      <c r="AT1" s="37" t="s">
+      <c r="BD1" s="37" t="s">
         <v>270</v>
       </c>
-      <c r="AU1" s="37" t="s">
+      <c r="BE1" s="37" t="s">
         <v>271</v>
       </c>
-      <c r="AV1" s="37" t="s">
-        <v>273</v>
-      </c>
-      <c r="AW1" s="37" t="s">
-        <v>274</v>
-      </c>
-      <c r="AX1" s="37" t="s">
-        <v>275</v>
-      </c>
-      <c r="AY1" s="37" t="s">
-        <v>283</v>
-      </c>
-      <c r="AZ1" s="37" t="s">
-        <v>276</v>
-      </c>
-      <c r="BA1" s="37" t="s">
-        <v>282</v>
-      </c>
-      <c r="BB1" s="37" t="s">
-        <v>281</v>
-      </c>
-      <c r="BC1" s="37" t="s">
-        <v>277</v>
-      </c>
-      <c r="BD1" s="37" t="s">
-        <v>278</v>
-      </c>
-      <c r="BE1" s="37" t="s">
-        <v>279</v>
-      </c>
       <c r="BF1" s="37" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="BG1" s="13" t="s">
         <v>121</v>
@@ -16412,16 +16652,14 @@
     </row>
     <row r="2" spans="1:71" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17" t="s">
         <v>243</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>246</v>
       </c>
       <c r="E2" s="24" t="s">
         <v>40</v>
@@ -16439,7 +16677,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="32" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="K2" s="21">
         <v>1</v>
@@ -16451,28 +16689,28 @@
         <v>0</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="R2" s="10" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="S2" s="10" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="T2" s="10" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="U2" s="10" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="V2" s="14" t="s">
         <v>132</v>
@@ -16520,37 +16758,37 @@
         <v>0</v>
       </c>
       <c r="AK2" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AL2" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AM2" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AN2" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AO2" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AP2" s="40" t="s">
         <v>118</v>
       </c>
       <c r="AQ2" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AR2" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AS2" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AT2" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AU2" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AV2" s="40">
         <f>VLOOKUP(AK2,units!$B$4:$C$7,2,FALSE)</f>
@@ -16633,16 +16871,14 @@
     </row>
     <row r="3" spans="1:71" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>249</v>
+        <v>324</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>251</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="C3" s="17"/>
       <c r="D3" s="17" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E3" s="24" t="s">
         <v>40</v>
@@ -16660,7 +16896,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="32" t="s">
-        <v>247</v>
+        <v>331</v>
       </c>
       <c r="K3" s="21">
         <v>0</v>
@@ -16672,28 +16908,28 @@
         <v>1</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="R3" s="10" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="S3" s="10" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="T3" s="10" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="U3" s="10" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="V3" s="14" t="s">
         <v>132</v>
@@ -16741,37 +16977,37 @@
         <v>0</v>
       </c>
       <c r="AK3" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AL3" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AM3" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AN3" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AO3" s="40" t="s">
         <v>118</v>
       </c>
       <c r="AP3" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AQ3" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AR3" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AS3" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AT3" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AU3" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AV3" s="40">
         <f>VLOOKUP(AK3,units!$B$4:$C$7,2,FALSE)</f>
@@ -16824,7 +17060,7 @@
         <v>0</v>
       </c>
       <c r="BI3" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ3" s="18">
         <v>0</v>
@@ -16852,53 +17088,443 @@
       </c>
       <c r="BS3" s="19"/>
     </row>
-    <row r="4" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="AK4" s="40"/>
-      <c r="AL4" s="40"/>
-      <c r="AM4" s="40"/>
-      <c r="AN4" s="40"/>
-      <c r="AO4" s="40"/>
-      <c r="AP4" s="40"/>
-      <c r="AQ4" s="40"/>
-      <c r="AR4" s="40"/>
-      <c r="AS4" s="40"/>
-      <c r="AT4" s="40"/>
-      <c r="AU4" s="40"/>
-      <c r="AV4" s="40"/>
-      <c r="AW4" s="40"/>
-      <c r="AX4" s="40"/>
-      <c r="AY4" s="40"/>
-      <c r="AZ4" s="40"/>
-      <c r="BA4" s="40"/>
-      <c r="BB4" s="40"/>
-      <c r="BC4" s="40"/>
-      <c r="BD4" s="40"/>
-      <c r="BE4" s="40"/>
-      <c r="BF4" s="40"/>
+    <row r="4" spans="1:71" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>329</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="23">
+        <v>0</v>
+      </c>
+      <c r="J4" s="32" t="s">
+        <v>332</v>
+      </c>
+      <c r="K4" s="21">
+        <v>0</v>
+      </c>
+      <c r="L4" s="21">
+        <v>0</v>
+      </c>
+      <c r="M4" s="21">
+        <v>1</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="R4" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="S4" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="T4" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="U4" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="V4" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="W4" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="X4" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y4" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z4" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="40" t="s">
+        <v>245</v>
+      </c>
+      <c r="AL4" s="40" t="s">
+        <v>245</v>
+      </c>
+      <c r="AM4" s="40" t="s">
+        <v>245</v>
+      </c>
+      <c r="AN4" s="40" t="s">
+        <v>245</v>
+      </c>
+      <c r="AO4" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="AP4" s="40" t="s">
+        <v>245</v>
+      </c>
+      <c r="AQ4" s="40" t="s">
+        <v>245</v>
+      </c>
+      <c r="AR4" s="40" t="s">
+        <v>245</v>
+      </c>
+      <c r="AS4" s="40" t="s">
+        <v>245</v>
+      </c>
+      <c r="AT4" s="40" t="s">
+        <v>245</v>
+      </c>
+      <c r="AU4" s="40" t="s">
+        <v>245</v>
+      </c>
+      <c r="AV4" s="40">
+        <f>VLOOKUP(AK4,units!$B$4:$C$7,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AW4" s="40">
+        <f>VLOOKUP(AL4,units!$E$4:$F$7,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AX4" s="40">
+        <f>VLOOKUP(AM4,units!$H$4:$I$7,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AY4" s="40">
+        <f>VLOOKUP(AN4,units!$K$4:$L$7,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AZ4" s="40">
+        <f>VLOOKUP(AO4,units!$E$4:$F$7,2,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="BA4" s="40">
+        <f>VLOOKUP(AP4,units!$E$4:$F$7,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="BB4" s="40">
+        <f>VLOOKUP(AQ4,units!$E$4:$F$7,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="BC4" s="40">
+        <f>VLOOKUP(AR4,units!$B$4:$C$7,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="BD4" s="40">
+        <f>VLOOKUP(AS4,units!$E$4:$F$7,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="BE4" s="40">
+        <f>VLOOKUP(AT4,units!$H$4:$I$7,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="BF4" s="40">
+        <f>VLOOKUP(AU4,units!$N$4:$O$7,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="BG4" s="18">
+        <v>1</v>
+      </c>
+      <c r="BH4" s="18">
+        <v>0</v>
+      </c>
+      <c r="BI4" s="18">
+        <v>0</v>
+      </c>
+      <c r="BJ4" s="18">
+        <v>0</v>
+      </c>
+      <c r="BK4" s="18">
+        <v>0</v>
+      </c>
+      <c r="BL4" s="18">
+        <v>0</v>
+      </c>
+      <c r="BM4" s="18">
+        <v>0</v>
+      </c>
+      <c r="BN4" s="18">
+        <v>0</v>
+      </c>
+      <c r="BO4" s="18">
+        <v>0</v>
+      </c>
+      <c r="BP4" s="18">
+        <v>0</v>
+      </c>
+      <c r="BQ4" s="18">
+        <v>0</v>
+      </c>
+      <c r="BS4" s="19"/>
     </row>
-    <row r="5" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="AK5" s="40"/>
-      <c r="AL5" s="40"/>
-      <c r="AM5" s="40"/>
-      <c r="AN5" s="40"/>
-      <c r="AO5" s="40"/>
-      <c r="AP5" s="40"/>
-      <c r="AQ5" s="40"/>
-      <c r="AR5" s="40"/>
-      <c r="AS5" s="40"/>
-      <c r="AT5" s="40"/>
-      <c r="AU5" s="40"/>
-      <c r="AV5" s="40"/>
-      <c r="AW5" s="40"/>
-      <c r="AX5" s="40"/>
-      <c r="AY5" s="40"/>
-      <c r="AZ5" s="40"/>
-      <c r="BA5" s="40"/>
-      <c r="BB5" s="40"/>
-      <c r="BC5" s="40"/>
-      <c r="BD5" s="40"/>
-      <c r="BE5" s="40"/>
-      <c r="BF5" s="40"/>
+    <row r="5" spans="1:71" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>330</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="23">
+        <v>0</v>
+      </c>
+      <c r="J5" s="32" t="s">
+        <v>333</v>
+      </c>
+      <c r="K5" s="21">
+        <v>1</v>
+      </c>
+      <c r="L5" s="21">
+        <v>1</v>
+      </c>
+      <c r="M5" s="21">
+        <v>0</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="S5" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="T5" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="U5" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="V5" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="W5" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="X5" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y5" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z5" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="40" t="s">
+        <v>245</v>
+      </c>
+      <c r="AL5" s="40" t="s">
+        <v>245</v>
+      </c>
+      <c r="AM5" s="40" t="s">
+        <v>245</v>
+      </c>
+      <c r="AN5" s="40" t="s">
+        <v>245</v>
+      </c>
+      <c r="AO5" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="AP5" s="40" t="s">
+        <v>245</v>
+      </c>
+      <c r="AQ5" s="40" t="s">
+        <v>245</v>
+      </c>
+      <c r="AR5" s="40" t="s">
+        <v>245</v>
+      </c>
+      <c r="AS5" s="40" t="s">
+        <v>245</v>
+      </c>
+      <c r="AT5" s="40" t="s">
+        <v>245</v>
+      </c>
+      <c r="AU5" s="40" t="s">
+        <v>245</v>
+      </c>
+      <c r="AV5" s="40">
+        <f>VLOOKUP(AK5,units!$B$4:$C$7,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AW5" s="40">
+        <f>VLOOKUP(AL5,units!$E$4:$F$7,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AX5" s="40">
+        <f>VLOOKUP(AM5,units!$H$4:$I$7,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AY5" s="40">
+        <f>VLOOKUP(AN5,units!$K$4:$L$7,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AZ5" s="40">
+        <f>VLOOKUP(AO5,units!$E$4:$F$7,2,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="BA5" s="40">
+        <f>VLOOKUP(AP5,units!$E$4:$F$7,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="BB5" s="40">
+        <f>VLOOKUP(AQ5,units!$E$4:$F$7,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="BC5" s="40">
+        <f>VLOOKUP(AR5,units!$B$4:$C$7,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="BD5" s="40">
+        <f>VLOOKUP(AS5,units!$E$4:$F$7,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="BE5" s="40">
+        <f>VLOOKUP(AT5,units!$H$4:$I$7,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="BF5" s="40">
+        <f>VLOOKUP(AU5,units!$N$4:$O$7,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="BG5" s="18">
+        <v>1</v>
+      </c>
+      <c r="BH5" s="18">
+        <v>0</v>
+      </c>
+      <c r="BI5" s="18">
+        <v>0</v>
+      </c>
+      <c r="BJ5" s="18">
+        <v>0</v>
+      </c>
+      <c r="BK5" s="18">
+        <v>0</v>
+      </c>
+      <c r="BL5" s="18">
+        <v>0</v>
+      </c>
+      <c r="BM5" s="18">
+        <v>0</v>
+      </c>
+      <c r="BN5" s="18">
+        <v>0</v>
+      </c>
+      <c r="BO5" s="18">
+        <v>0</v>
+      </c>
+      <c r="BP5" s="18">
+        <v>0</v>
+      </c>
+      <c r="BQ5" s="18">
+        <v>0</v>
+      </c>
+      <c r="BS5" s="19"/>
     </row>
     <row r="6" spans="1:71" x14ac:dyDescent="0.25">
       <c r="AK6" s="40"/>
@@ -16950,7 +17576,7 @@
     </row>
     <row r="8" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="AK8" s="40"/>
       <c r="AL8" s="40"/>
@@ -16976,9 +17602,7 @@
       <c r="BF8" s="40"/>
     </row>
     <row r="9" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
-        <v>252</v>
-      </c>
+      <c r="A9" s="30"/>
       <c r="B9" s="30"/>
       <c r="C9" s="30"/>
       <c r="D9" s="30"/>
@@ -17010,9 +17634,7 @@
       <c r="BF9" s="40"/>
     </row>
     <row r="10" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
-        <v>253</v>
-      </c>
+      <c r="A10" s="30"/>
       <c r="B10" s="30"/>
       <c r="C10" s="30"/>
       <c r="D10" s="30"/>
@@ -17981,613 +18603,813 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="AH2:AJ2 J2:AF2 A2:H2 BG2:BQ2">
-    <cfRule type="cellIs" dxfId="125" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="162" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG2">
-    <cfRule type="cellIs" dxfId="124" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="161" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z2:AJ2">
+    <cfRule type="cellIs" dxfId="163" priority="159" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH3:AJ3 J3:AF3 A3:H3 BG3:BQ3">
+    <cfRule type="cellIs" dxfId="162" priority="158" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG3">
+    <cfRule type="cellIs" dxfId="161" priority="157" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z3:AJ3">
+    <cfRule type="cellIs" dxfId="160" priority="155" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK50:AU1048576">
+    <cfRule type="cellIs" dxfId="159" priority="154" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL2:AQ2 AK23:AU36 AK48:AU49 AK39:AU40 AK42:AU46 AK3:AQ3 AS2:AU3 AS16:AU21 AK16:AQ21 AS6:AU14 AK6:AQ14">
+    <cfRule type="cellIs" dxfId="158" priority="153" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR2:AR3 AR16:AR21 AR6:AR14">
+    <cfRule type="cellIs" dxfId="157" priority="152" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS22:AU22 AK22:AQ22">
+    <cfRule type="cellIs" dxfId="156" priority="151" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR22">
+    <cfRule type="cellIs" dxfId="155" priority="150" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK38:AU38">
+    <cfRule type="cellIs" dxfId="154" priority="149" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK37:AU37">
+    <cfRule type="cellIs" dxfId="153" priority="148" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK48:AU49 AK42:AK47 AL42:AU46 AK16:AU40 AK2:AU3 AK6:AU14">
+    <cfRule type="cellIs" dxfId="152" priority="147" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK40:AU40">
+    <cfRule type="cellIs" dxfId="151" priority="146" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK40:AU40">
+    <cfRule type="cellIs" dxfId="150" priority="145" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK47:AU47">
+    <cfRule type="cellIs" dxfId="149" priority="144" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK47:AU47">
+    <cfRule type="cellIs" dxfId="148" priority="143" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL37">
+    <cfRule type="cellIs" dxfId="147" priority="114" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK42:AU49 AK16:AU40 AK2:AU3 AK6:AU14">
+    <cfRule type="cellIs" dxfId="146" priority="142" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK42:AU49 AK16:AU40 AK2:AU3 AK6:AU14">
+    <cfRule type="cellIs" dxfId="145" priority="141" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK2:AK3 AK42:AK49 AK16:AK40 AK6:AK14">
+    <cfRule type="cellIs" dxfId="144" priority="140" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR3">
+    <cfRule type="cellIs" dxfId="143" priority="139" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR3">
+    <cfRule type="cellIs" dxfId="142" priority="138" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR6:AR14 AR16">
+    <cfRule type="cellIs" dxfId="141" priority="137" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR6:AR14 AR16">
+    <cfRule type="cellIs" dxfId="140" priority="136" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR20:AR21 AR17:AR18">
+    <cfRule type="cellIs" dxfId="139" priority="135" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR23 AR20:AR21 AR17:AR18">
+    <cfRule type="cellIs" dxfId="138" priority="134" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR24">
+    <cfRule type="cellIs" dxfId="137" priority="133" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR26">
+    <cfRule type="cellIs" dxfId="136" priority="132" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR27">
+    <cfRule type="cellIs" dxfId="135" priority="131" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR28">
+    <cfRule type="cellIs" dxfId="134" priority="130" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR29">
+    <cfRule type="cellIs" dxfId="133" priority="129" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR31">
+    <cfRule type="cellIs" dxfId="132" priority="128" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR32">
+    <cfRule type="cellIs" dxfId="131" priority="127" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR33">
+    <cfRule type="cellIs" dxfId="130" priority="126" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR34">
+    <cfRule type="cellIs" dxfId="129" priority="125" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR35">
+    <cfRule type="cellIs" dxfId="128" priority="124" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK37">
+    <cfRule type="cellIs" dxfId="127" priority="123" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK38">
+    <cfRule type="cellIs" dxfId="126" priority="122" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR36">
+    <cfRule type="cellIs" dxfId="125" priority="121" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR37">
+    <cfRule type="cellIs" dxfId="124" priority="120" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR37">
     <cfRule type="cellIs" dxfId="123" priority="119" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR38">
+    <cfRule type="cellIs" dxfId="122" priority="118" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR38">
+    <cfRule type="cellIs" dxfId="121" priority="117" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR39">
+    <cfRule type="cellIs" dxfId="120" priority="116" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR40">
+    <cfRule type="cellIs" dxfId="119" priority="115" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO47">
+    <cfRule type="cellIs" dxfId="118" priority="113" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO47">
+    <cfRule type="cellIs" dxfId="117" priority="112" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH3:AJ3 J3:AF3 A3:H3 BG3:BQ3">
-    <cfRule type="cellIs" dxfId="122" priority="118" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG3">
-    <cfRule type="cellIs" dxfId="121" priority="117" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z3:AJ3">
-    <cfRule type="cellIs" dxfId="120" priority="115" operator="equal">
+  <conditionalFormatting sqref="AV50:BF1048576">
+    <cfRule type="cellIs" dxfId="116" priority="111" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV23:BF36 AV48:BF49 AV39:BF40 AW2:BB3 AV42:BF46 BD47:BF47 AW47:BB47 AV3 BD2:BF3 BD16:BF22 BD37:BF38 AW16:BB22 AW37:BB38 AV16:AV21 BD6:BF14 AV6:BB14">
+    <cfRule type="cellIs" dxfId="115" priority="110" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BC42:BC49 BC2:BC3 BC16:BC40 BC6:BC14">
+    <cfRule type="cellIs" dxfId="114" priority="109" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BD22:BF22 AV22:BB22">
+    <cfRule type="cellIs" dxfId="113" priority="108" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BC22">
+    <cfRule type="cellIs" dxfId="112" priority="107" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV38:BF38">
+    <cfRule type="cellIs" dxfId="111" priority="106" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV37:BF37">
+    <cfRule type="cellIs" dxfId="110" priority="105" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV42:BF49 AV2:BF3 AV16:BF40 AV6:BF14">
+    <cfRule type="cellIs" dxfId="109" priority="104" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK50:AU1048576">
-    <cfRule type="cellIs" dxfId="119" priority="114" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL2:AQ2 AK23:AU36 AK48:AU49 AK39:AU40 AK42:AU46 AK3:AQ14 AS2:AU14 AS16:AU21 AK16:AQ21">
-    <cfRule type="cellIs" dxfId="118" priority="113" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR2:AR14 AR16:AR21">
-    <cfRule type="cellIs" dxfId="117" priority="112" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AS22:AU22 AK22:AQ22">
-    <cfRule type="cellIs" dxfId="116" priority="111" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR22">
-    <cfRule type="cellIs" dxfId="115" priority="110" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK38:AU38">
-    <cfRule type="cellIs" dxfId="114" priority="109" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK37:AU37">
-    <cfRule type="cellIs" dxfId="113" priority="108" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK48:AU49 AK42:AK47 AL42:AU46 AK16:AU40 AK2:AU14">
-    <cfRule type="cellIs" dxfId="112" priority="107" operator="equal">
+  <conditionalFormatting sqref="AV40:BF40">
+    <cfRule type="cellIs" dxfId="108" priority="103" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV40:BF40">
+    <cfRule type="cellIs" dxfId="107" priority="102" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK40:AU40">
-    <cfRule type="cellIs" dxfId="111" priority="106" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK40:AU40">
-    <cfRule type="cellIs" dxfId="110" priority="105" operator="equal">
+  <conditionalFormatting sqref="AV47:BF47">
+    <cfRule type="cellIs" dxfId="106" priority="101" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV47:BF47">
+    <cfRule type="cellIs" dxfId="105" priority="100" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK47:AU47">
-    <cfRule type="cellIs" dxfId="109" priority="104" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK47:AU47">
-    <cfRule type="cellIs" dxfId="108" priority="103" operator="equal">
+  <conditionalFormatting sqref="AW37">
+    <cfRule type="cellIs" dxfId="104" priority="71" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV42:BF49 AV2:BF3 AV16:BF40 AV6:BF14">
+    <cfRule type="cellIs" dxfId="103" priority="99" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV42:BF49 AV2:BF3 AV16:BF40 AV6:BF14">
+    <cfRule type="cellIs" dxfId="102" priority="98" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL37">
-    <cfRule type="cellIs" dxfId="107" priority="74" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK42:AU49 AK16:AU40 AK2:AU14">
-    <cfRule type="cellIs" dxfId="106" priority="102" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK42:AU49 AK16:AU40 AK2:AU14">
-    <cfRule type="cellIs" dxfId="105" priority="101" operator="equal">
+  <conditionalFormatting sqref="AV42:AV49 AV2:AV3 AV16:AV40 AV6:AV14">
+    <cfRule type="cellIs" dxfId="101" priority="97" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BC3">
+    <cfRule type="cellIs" dxfId="100" priority="96" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BC3">
+    <cfRule type="cellIs" dxfId="99" priority="95" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BC6:BC14 BC16">
+    <cfRule type="cellIs" dxfId="98" priority="94" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BC6:BC14 BC16">
+    <cfRule type="cellIs" dxfId="97" priority="93" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BC20:BC21 BC17:BC18">
+    <cfRule type="cellIs" dxfId="96" priority="92" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BC23 BC20:BC21 BC17:BC18">
+    <cfRule type="cellIs" dxfId="95" priority="91" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BC24">
+    <cfRule type="cellIs" dxfId="94" priority="90" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BC26">
+    <cfRule type="cellIs" dxfId="93" priority="89" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BC27">
+    <cfRule type="cellIs" dxfId="92" priority="88" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BC28">
+    <cfRule type="cellIs" dxfId="91" priority="87" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BC29">
+    <cfRule type="cellIs" dxfId="90" priority="86" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BC31">
+    <cfRule type="cellIs" dxfId="89" priority="85" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BC32">
+    <cfRule type="cellIs" dxfId="88" priority="84" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BC33">
+    <cfRule type="cellIs" dxfId="87" priority="83" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BC34">
+    <cfRule type="cellIs" dxfId="86" priority="82" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BC35">
+    <cfRule type="cellIs" dxfId="85" priority="81" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV37">
+    <cfRule type="cellIs" dxfId="84" priority="80" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV38">
+    <cfRule type="cellIs" dxfId="83" priority="79" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BC36">
+    <cfRule type="cellIs" dxfId="82" priority="78" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BC37">
+    <cfRule type="cellIs" dxfId="81" priority="77" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BC37">
+    <cfRule type="cellIs" dxfId="80" priority="76" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BC38">
+    <cfRule type="cellIs" dxfId="79" priority="75" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BC38">
+    <cfRule type="cellIs" dxfId="78" priority="74" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BC39">
+    <cfRule type="cellIs" dxfId="77" priority="73" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BC40">
+    <cfRule type="cellIs" dxfId="76" priority="72" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AZ47">
+    <cfRule type="cellIs" dxfId="75" priority="70" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AZ47">
+    <cfRule type="cellIs" dxfId="74" priority="69" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK2:AK14 AK42:AK49 AK16:AK40">
-    <cfRule type="cellIs" dxfId="104" priority="100" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR3:AR4">
-    <cfRule type="cellIs" dxfId="103" priority="99" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR3:AR4">
-    <cfRule type="cellIs" dxfId="102" priority="98" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR5:AR14 AR16">
-    <cfRule type="cellIs" dxfId="101" priority="97" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR5:AR14 AR16">
-    <cfRule type="cellIs" dxfId="100" priority="96" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR20:AR21 AR17:AR18">
-    <cfRule type="cellIs" dxfId="99" priority="95" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR23 AR20:AR21 AR17:AR18">
-    <cfRule type="cellIs" dxfId="98" priority="94" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR24">
-    <cfRule type="cellIs" dxfId="97" priority="93" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR26">
-    <cfRule type="cellIs" dxfId="96" priority="92" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR27">
-    <cfRule type="cellIs" dxfId="95" priority="91" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR28">
-    <cfRule type="cellIs" dxfId="94" priority="90" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR29">
-    <cfRule type="cellIs" dxfId="93" priority="89" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR31">
-    <cfRule type="cellIs" dxfId="92" priority="88" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR32">
-    <cfRule type="cellIs" dxfId="91" priority="87" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR33">
-    <cfRule type="cellIs" dxfId="90" priority="86" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR34">
-    <cfRule type="cellIs" dxfId="89" priority="85" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR35">
-    <cfRule type="cellIs" dxfId="88" priority="84" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK37">
-    <cfRule type="cellIs" dxfId="87" priority="83" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK38">
-    <cfRule type="cellIs" dxfId="86" priority="82" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR36">
-    <cfRule type="cellIs" dxfId="85" priority="81" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR37">
-    <cfRule type="cellIs" dxfId="84" priority="80" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR37">
-    <cfRule type="cellIs" dxfId="83" priority="79" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR38">
-    <cfRule type="cellIs" dxfId="82" priority="78" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR38">
-    <cfRule type="cellIs" dxfId="81" priority="77" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR39">
-    <cfRule type="cellIs" dxfId="80" priority="76" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR40">
-    <cfRule type="cellIs" dxfId="79" priority="75" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO47">
-    <cfRule type="cellIs" dxfId="78" priority="73" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO47">
-    <cfRule type="cellIs" dxfId="77" priority="72" operator="equal">
+  <conditionalFormatting sqref="AK41">
+    <cfRule type="cellIs" dxfId="73" priority="64" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV41:BF41">
+    <cfRule type="cellIs" dxfId="72" priority="63" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV41">
+    <cfRule type="cellIs" dxfId="71" priority="58" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK41:AU41">
+    <cfRule type="cellIs" dxfId="70" priority="68" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK41:AU41">
+    <cfRule type="cellIs" dxfId="69" priority="67" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV50:BF1048576">
-    <cfRule type="cellIs" dxfId="76" priority="71" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV23:BF36 AV48:BF49 AV39:BF40 AW2:BB14 AV42:BF46 BD47:BF47 AW47:BB47 AV3:AV14 BD2:BF14 BD16:BF22 BD37:BF38 AW16:BB22 AW37:BB38 AV16:AV21">
-    <cfRule type="cellIs" dxfId="75" priority="70" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BC42:BC49 BC2:BC14 BC16:BC40">
-    <cfRule type="cellIs" dxfId="74" priority="69" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BD22:BF22 AV22:BB22">
-    <cfRule type="cellIs" dxfId="73" priority="68" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BC22">
-    <cfRule type="cellIs" dxfId="72" priority="67" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV38:BF38">
-    <cfRule type="cellIs" dxfId="71" priority="66" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV37:BF37">
-    <cfRule type="cellIs" dxfId="70" priority="65" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV42:BF49 AV2:BF14 AV16:BF40">
-    <cfRule type="cellIs" dxfId="69" priority="64" operator="equal">
+  <conditionalFormatting sqref="AK41:AU41">
+    <cfRule type="cellIs" dxfId="68" priority="66" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK41:AU41">
+    <cfRule type="cellIs" dxfId="67" priority="65" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV40:BF40">
-    <cfRule type="cellIs" dxfId="68" priority="63" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV40:BF40">
-    <cfRule type="cellIs" dxfId="67" priority="62" operator="equal">
+  <conditionalFormatting sqref="BC41">
+    <cfRule type="cellIs" dxfId="66" priority="62" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV41:BF41">
+    <cfRule type="cellIs" dxfId="65" priority="61" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV47:BF47">
-    <cfRule type="cellIs" dxfId="66" priority="61" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV47:BF47">
-    <cfRule type="cellIs" dxfId="65" priority="60" operator="equal">
+  <conditionalFormatting sqref="AV41:BF41">
+    <cfRule type="cellIs" dxfId="64" priority="60" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV41:BF41">
+    <cfRule type="cellIs" dxfId="63" priority="59" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AW37">
-    <cfRule type="cellIs" dxfId="64" priority="31" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV42:BF49 AV2:BF14 AV16:BF40">
-    <cfRule type="cellIs" dxfId="63" priority="59" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV42:BF49 AV2:BF14 AV16:BF40">
-    <cfRule type="cellIs" dxfId="62" priority="58" operator="equal">
+  <conditionalFormatting sqref="AK15:AQ15 AS15:AU15">
+    <cfRule type="cellIs" dxfId="62" priority="57" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR15">
+    <cfRule type="cellIs" dxfId="61" priority="56" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK15:AU15">
+    <cfRule type="cellIs" dxfId="60" priority="55" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV42:AV49 AV2:AV14 AV16:AV40">
-    <cfRule type="cellIs" dxfId="61" priority="57" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BC3:BC4">
-    <cfRule type="cellIs" dxfId="60" priority="56" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BC3:BC4">
-    <cfRule type="cellIs" dxfId="59" priority="55" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BC5:BC14 BC16">
-    <cfRule type="cellIs" dxfId="58" priority="54" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BC5:BC14 BC16">
-    <cfRule type="cellIs" dxfId="57" priority="53" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BC20:BC21 BC17:BC18">
-    <cfRule type="cellIs" dxfId="56" priority="52" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BC23 BC20:BC21 BC17:BC18">
-    <cfRule type="cellIs" dxfId="55" priority="51" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BC24">
-    <cfRule type="cellIs" dxfId="54" priority="50" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BC26">
-    <cfRule type="cellIs" dxfId="53" priority="49" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BC27">
-    <cfRule type="cellIs" dxfId="52" priority="48" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BC28">
-    <cfRule type="cellIs" dxfId="51" priority="47" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BC29">
-    <cfRule type="cellIs" dxfId="50" priority="46" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BC31">
-    <cfRule type="cellIs" dxfId="49" priority="45" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BC32">
-    <cfRule type="cellIs" dxfId="48" priority="44" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BC33">
-    <cfRule type="cellIs" dxfId="47" priority="43" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BC34">
-    <cfRule type="cellIs" dxfId="46" priority="42" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BC35">
-    <cfRule type="cellIs" dxfId="45" priority="41" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV37">
-    <cfRule type="cellIs" dxfId="44" priority="40" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV38">
-    <cfRule type="cellIs" dxfId="43" priority="39" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BC36">
-    <cfRule type="cellIs" dxfId="42" priority="38" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BC37">
-    <cfRule type="cellIs" dxfId="41" priority="37" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BC37">
-    <cfRule type="cellIs" dxfId="40" priority="36" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BC38">
-    <cfRule type="cellIs" dxfId="39" priority="35" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BC38">
-    <cfRule type="cellIs" dxfId="38" priority="34" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BC39">
-    <cfRule type="cellIs" dxfId="37" priority="33" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BC40">
-    <cfRule type="cellIs" dxfId="36" priority="32" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AZ47">
-    <cfRule type="cellIs" dxfId="35" priority="30" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AZ47">
-    <cfRule type="cellIs" dxfId="34" priority="29" operator="equal">
+  <conditionalFormatting sqref="AK15:AU15">
+    <cfRule type="cellIs" dxfId="59" priority="54" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK15:AU15">
+    <cfRule type="cellIs" dxfId="58" priority="53" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK41">
-    <cfRule type="cellIs" dxfId="33" priority="24" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV41:BF41">
-    <cfRule type="cellIs" dxfId="32" priority="23" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV41">
-    <cfRule type="cellIs" dxfId="31" priority="18" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK41:AU41">
-    <cfRule type="cellIs" dxfId="30" priority="28" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK41:AU41">
-    <cfRule type="cellIs" dxfId="29" priority="27" operator="equal">
+  <conditionalFormatting sqref="AK15">
+    <cfRule type="cellIs" dxfId="57" priority="52" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR15">
+    <cfRule type="cellIs" dxfId="56" priority="51" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR15">
+    <cfRule type="cellIs" dxfId="55" priority="50" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV15:BB15 BD15:BF15">
+    <cfRule type="cellIs" dxfId="54" priority="49" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BC15">
+    <cfRule type="cellIs" dxfId="53" priority="48" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV15:BF15">
+    <cfRule type="cellIs" dxfId="52" priority="47" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK41:AU41">
-    <cfRule type="cellIs" dxfId="28" priority="26" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK41:AU41">
-    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
+  <conditionalFormatting sqref="AV15:BF15">
+    <cfRule type="cellIs" dxfId="51" priority="46" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV15:BF15">
+    <cfRule type="cellIs" dxfId="50" priority="45" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BC41">
-    <cfRule type="cellIs" dxfId="26" priority="22" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV41:BF41">
-    <cfRule type="cellIs" dxfId="25" priority="21" operator="equal">
+  <conditionalFormatting sqref="AV15">
+    <cfRule type="cellIs" dxfId="49" priority="44" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BC15">
+    <cfRule type="cellIs" dxfId="48" priority="43" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BC15">
+    <cfRule type="cellIs" dxfId="47" priority="42" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR2:AR3">
+    <cfRule type="cellIs" dxfId="46" priority="41" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH4:AJ4 J4:AF4 A4:H4 BG4:BQ4">
+    <cfRule type="cellIs" dxfId="39" priority="40" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG4">
+    <cfRule type="cellIs" dxfId="38" priority="39" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z4:AJ4">
+    <cfRule type="cellIs" dxfId="37" priority="38" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV41:BF41">
-    <cfRule type="cellIs" dxfId="24" priority="20" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV41:BF41">
-    <cfRule type="cellIs" dxfId="23" priority="19" operator="equal">
+  <conditionalFormatting sqref="AK4:AQ4 AS4:AU4">
+    <cfRule type="cellIs" dxfId="36" priority="37" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR4">
+    <cfRule type="cellIs" dxfId="35" priority="36" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK4:AU4">
+    <cfRule type="cellIs" dxfId="34" priority="35" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK15:AQ15 AS15:AU15">
-    <cfRule type="cellIs" dxfId="22" priority="17" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR15">
-    <cfRule type="cellIs" dxfId="21" priority="16" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK15:AU15">
-    <cfRule type="cellIs" dxfId="20" priority="15" operator="equal">
+  <conditionalFormatting sqref="AK4:AU4">
+    <cfRule type="cellIs" dxfId="33" priority="34" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK4:AU4">
+    <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK15:AU15">
-    <cfRule type="cellIs" dxfId="19" priority="14" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK15:AU15">
-    <cfRule type="cellIs" dxfId="18" priority="13" operator="equal">
+  <conditionalFormatting sqref="AK4">
+    <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR4">
+    <cfRule type="cellIs" dxfId="30" priority="31" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR4">
+    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV4:BB4 BD4:BF4">
+    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BC4">
+    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV4:BF4">
+    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK15">
-    <cfRule type="cellIs" dxfId="17" priority="12" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR15">
-    <cfRule type="cellIs" dxfId="16" priority="11" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR15">
-    <cfRule type="cellIs" dxfId="15" priority="10" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV15:BB15 BD15:BF15">
-    <cfRule type="cellIs" dxfId="14" priority="9" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BC15">
-    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV15:BF15">
-    <cfRule type="cellIs" dxfId="12" priority="7" operator="equal">
+  <conditionalFormatting sqref="AV4:BF4">
+    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV4:BF4">
+    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV15:BF15">
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV15:BF15">
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+  <conditionalFormatting sqref="AV4">
+    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BC4">
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BC4">
+    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR4">
+    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH5:AJ5 J5:AF5 A5:H5 BG5:BQ5">
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG5">
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z5:AJ5">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV15">
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BC15">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BC15">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR2:AR3">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+  <conditionalFormatting sqref="AK5:AQ5 AS5:AU5">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR5">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK5:AU5">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK5:AU5">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK5:AU5">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK5">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR5">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR5">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV5:BB5 BD5:BF5">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BC5">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV5:BF5">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV5:BF5">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV5:BF5">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV5">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BC5">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BC5">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR5">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H5">
       <formula1>"yes,no"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F5">
       <formula1>"g,m/s2,cm/s2,m/s,cm/s,m,cm,g*sec"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E5">
       <formula1>"10,natural"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK2:AU49">
@@ -18603,7 +19425,7 @@
   <dimension ref="A1:AU3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18757,16 +19579,16 @@
     </row>
     <row r="2" spans="1:47" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E2" s="24" t="s">
         <v>40</v>
@@ -18898,16 +19720,16 @@
     </row>
     <row r="3" spans="1:47" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E3" s="24" t="s">
         <v>40</v>
@@ -19039,32 +19861,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:H3 J2:M3">
-    <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="9" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH2:AU2 N2:AF2">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="5" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG2">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="4" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z2:AJ2">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:AU3">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="2" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z3:AJ3">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19112,7 +19934,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -19123,78 +19945,78 @@
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C2" s="34" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="F2" s="34" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="I2" s="34" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="L2" s="34" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="34" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="E3" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="F3" s="34" t="s">
         <v>119</v>
       </c>
       <c r="H3" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="I3" s="34" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="K3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="L3" s="34" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="N3" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="34" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C4" s="34">
         <v>1</v>
       </c>
       <c r="D4" s="34"/>
       <c r="E4" s="34" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F4" s="34">
         <v>1</v>
       </c>
       <c r="G4" s="34"/>
       <c r="H4" s="34" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I4" s="34">
         <v>1</v>
       </c>
       <c r="J4" s="34"/>
       <c r="K4" s="34" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="L4" s="34">
         <v>1</v>
       </c>
       <c r="M4" s="34"/>
       <c r="N4" s="34" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="O4" s="34">
         <v>1</v>
@@ -19216,14 +20038,14 @@
       </c>
       <c r="G5" s="34"/>
       <c r="H5" s="34" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="I5" s="34">
         <v>100</v>
       </c>
       <c r="J5" s="34"/>
       <c r="K5" s="34" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="L5" s="34">
         <v>1</v>
@@ -19234,10 +20056,10 @@
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="34" t="s">
+        <v>276</v>
+      </c>
+      <c r="C6" s="35" t="s">
         <v>284</v>
-      </c>
-      <c r="C6" s="35" t="s">
-        <v>292</v>
       </c>
       <c r="D6" s="34"/>
       <c r="E6" s="34" t="s">
@@ -19248,7 +20070,7 @@
       </c>
       <c r="G6" s="34"/>
       <c r="H6" s="34" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="I6" s="34">
         <v>1</v>
@@ -19265,7 +20087,7 @@
         <v>89</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="D7" s="34"/>
       <c r="E7" s="34" t="s">
